--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G2" t="n">
         <v>1.64</v>
@@ -679,13 +679,13 @@
         <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
         <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -694,28 +694,28 @@
         <v>4.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S2" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="T2" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
         <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
         <v>2.52</v>
@@ -742,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="n">
         <v>11.5</v>
@@ -766,13 +766,13 @@
         <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="G3" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="I3" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>3.45</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="Q3" t="n">
         <v>2.98</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G5" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
@@ -1084,10 +1084,10 @@
         <v>3.75</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1099,19 +1099,19 @@
         <v>3.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
         <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T5" t="n">
         <v>1.79</v>
@@ -1123,10 +1123,10 @@
         <v>1.36</v>
       </c>
       <c r="W5" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X5" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>980</v>
@@ -1177,7 +1177,7 @@
         <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1210,19 +1210,19 @@
         <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="I6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="J6" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.23</v>
@@ -1240,19 +1240,19 @@
         <v>2.34</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
         <v>1.52</v>
       </c>
       <c r="S6" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T6" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1273,34 +1273,34 @@
         <v>9.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD6" t="n">
         <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="AH6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1345,19 +1345,19 @@
         <v>1.65</v>
       </c>
       <c r="G7" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1366,13 +1366,13 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
         <v>1.61</v>
@@ -1381,13 +1381,13 @@
         <v>1.6</v>
       </c>
       <c r="S7" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T7" t="n">
         <v>1.68</v>
       </c>
       <c r="U7" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1426,7 +1426,7 @@
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>7</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="G8" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J8" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.9</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>2.5</v>
+        <v>1.09</v>
       </c>
       <c r="I9" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>2.42</v>
+        <v>1.09</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.68</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>1.94</v>
+        <v>1.09</v>
       </c>
       <c r="I10" t="n">
-        <v>2.62</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="K10" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1885,7 +1885,7 @@
         <v>1.59</v>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="H11" t="n">
         <v>5.4</v>
@@ -1894,7 +1894,7 @@
         <v>7.6</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
         <v>5.4</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.94</v>
+        <v>1.15</v>
       </c>
       <c r="Q11" t="n">
         <v>1.01</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2.04</v>
+        <v>2.42</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.04</v>
+        <v>1.15</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2158,16 +2158,16 @@
         <v>1.87</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
         <v>6.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G14" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
         <v>8.4</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.26</v>
+        <v>1.15</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G16" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
       </c>
       <c r="J16" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
         <v>6.2</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.5</v>
+        <v>1.15</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="H17" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I17" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2716,28 +2716,28 @@
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R17" t="n">
         <v>1.97</v>
       </c>
       <c r="S17" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="T17" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="U17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
         <v>11.5</v>
@@ -2767,7 +2767,7 @@
         <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AF17" t="n">
         <v>1000</v>
@@ -2779,25 +2779,25 @@
         <v>13.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="18">
@@ -2833,13 +2833,13 @@
         <v>1.41</v>
       </c>
       <c r="H18" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J18" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K18" t="n">
         <v>5.8</v>
@@ -2854,25 +2854,25 @@
         <v>4.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
         <v>2.34</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S18" t="n">
         <v>2.74</v>
       </c>
       <c r="T18" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
         <v>32</v>
@@ -2890,28 +2890,28 @@
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="AB18" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC18" t="n">
         <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE18" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2920,13 +2920,13 @@
         <v>12.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AL18" t="n">
         <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="n">
         <v>5.8</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G19" t="n">
         <v>2.66</v>
       </c>
-      <c r="G19" t="n">
-        <v>2.68</v>
-      </c>
       <c r="H19" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I19" t="n">
         <v>2.64</v>
@@ -2995,7 +2995,7 @@
         <v>3.05</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R19" t="n">
         <v>1.83</v>
@@ -3004,10 +3004,10 @@
         <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="U19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,19 +3016,19 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y19" t="n">
         <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA19" t="n">
         <v>42</v>
       </c>
       <c r="AB19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
         <v>10.5</v>
@@ -3040,10 +3040,10 @@
         <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
         <v>14</v>
@@ -3052,10 +3052,10 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>27</v>
@@ -3064,10 +3064,10 @@
         <v>46</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -3106,13 +3106,13 @@
         <v>12</v>
       </c>
       <c r="I20" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="J20" t="n">
         <v>6.6</v>
       </c>
       <c r="K20" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3121,28 +3121,28 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q20" t="n">
         <v>1.51</v>
       </c>
       <c r="R20" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S20" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="T20" t="n">
         <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,16 +3151,16 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="Z20" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="AB20" t="n">
         <v>11.5</v>
@@ -3169,37 +3169,37 @@
         <v>16.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AE20" t="n">
         <v>220</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AG20" t="n">
         <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM20" t="n">
         <v>180</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="G21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
         <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3256,28 +3256,28 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R21" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3289,52 +3289,52 @@
         <v>17.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF21" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ21" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM21" t="n">
         <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
         <v>60</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G22" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H22" t="n">
         <v>2.74</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.7</v>
-      </c>
       <c r="I22" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="J22" t="n">
         <v>3.65</v>
@@ -3391,28 +3391,28 @@
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O22" t="n">
         <v>1.24</v>
       </c>
       <c r="P22" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="S22" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T22" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="U22" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="n">
         <v>15</v>
@@ -3430,37 +3430,37 @@
         <v>22</v>
       </c>
       <c r="AA22" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AB22" t="n">
         <v>14.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF22" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK22" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
         <v>36</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO22" t="n">
         <v>21</v>
@@ -3505,10 +3505,10 @@
         <v>2.5</v>
       </c>
       <c r="G23" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H23" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I23" t="n">
         <v>2.94</v>
@@ -3532,13 +3532,13 @@
         <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R23" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S23" t="n">
         <v>2.3</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="Y23" t="n">
         <v>19.5</v>
@@ -3565,40 +3565,40 @@
         <v>25</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB23" t="n">
         <v>18.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD23" t="n">
         <v>14</v>
       </c>
       <c r="AE23" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AF23" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
         <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI23" t="n">
         <v>32</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="G24" t="n">
-        <v>1.73</v>
+        <v>1000</v>
       </c>
       <c r="H24" t="n">
-        <v>2.36</v>
+        <v>1.04</v>
       </c>
       <c r="I24" t="n">
         <v>1000</v>
       </c>
       <c r="J24" t="n">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="K24" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G2" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I2" t="n">
         <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
         <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="Q2" t="n">
         <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>25</v>
       </c>
       <c r="Z2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>75</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO2" t="n">
         <v>75</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="H3" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="I3" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P3" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.98</v>
+        <v>2.32</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -949,100 +949,100 @@
         <v>1000</v>
       </c>
       <c r="J4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L4" t="n">
         <v>1.01</v>
       </c>
-      <c r="K4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.01</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,73 +1072,73 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>1.78</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.76</v>
+        <v>1.29</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="R5" t="n">
         <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="V5" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W5" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
         <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
         <v>9.199999999999999</v>
@@ -1147,19 +1147,19 @@
         <v>980</v>
       </c>
       <c r="AE5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
         <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="n">
         <v>980</v>
@@ -1177,7 +1177,7 @@
         <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="n">
         <v>1.29</v>
@@ -1219,97 +1219,97 @@
         <v>1.3</v>
       </c>
       <c r="J6" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K6" t="n">
         <v>6.8</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R6" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S6" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="T6" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="n">
         <v>7</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AG6" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="AH6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>770</v>
       </c>
       <c r="AK6" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM6" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AO6" t="n">
         <v>5</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.65</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.66</v>
-      </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I7" t="n">
         <v>5.8</v>
@@ -1357,94 +1357,94 @@
         <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q7" t="n">
         <v>1.61</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
         <v>2.52</v>
       </c>
       <c r="T7" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U7" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA7" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO7" t="n">
         <v>55</v>
@@ -1480,109 +1480,109 @@
         <v>3.45</v>
       </c>
       <c r="G8" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
         <v>2.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.92</v>
+        <v>2.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.58</v>
+        <v>2.94</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P8" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>3.1</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1.09</v>
+        <v>2.74</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.09</v>
+        <v>2.74</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>2.92</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.09</v>
+        <v>2.26</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>2.48</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>980</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>2.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G11" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="H11" t="n">
         <v>5.4</v>
       </c>
       <c r="I11" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>1.15</v>
+        <v>2.18</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.68</v>
+        <v>1.75</v>
       </c>
       <c r="G12" t="n">
-        <v>3.5</v>
+        <v>1.93</v>
       </c>
       <c r="H12" t="n">
-        <v>2.42</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>1.15</v>
+        <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="G13" t="n">
-        <v>1.87</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>2.46</v>
       </c>
       <c r="I13" t="n">
-        <v>6.4</v>
+        <v>2.78</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
         <v>4.5</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
         <v>2.06</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>8.4</v>
+        <v>5.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>1.15</v>
+        <v>2.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.49</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>1.15</v>
+        <v>2.52</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.6</v>
+        <v>2.52</v>
       </c>
       <c r="G16" t="n">
-        <v>1.88</v>
+        <v>2.54</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>2.72</v>
       </c>
       <c r="I16" t="n">
-        <v>6.6</v>
+        <v>2.74</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P16" t="n">
-        <v>1.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.52</v>
+        <v>1.36</v>
       </c>
       <c r="G17" t="n">
-        <v>2.56</v>
+        <v>1.37</v>
       </c>
       <c r="H17" t="n">
-        <v>2.78</v>
+        <v>11</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>11.5</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="X17" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>420</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF17" t="n">
         <v>8</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="U17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AL17" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AN17" t="n">
-        <v>10.5</v>
+        <v>5.2</v>
       </c>
       <c r="AO17" t="n">
-        <v>12.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="G18" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I18" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="J18" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>2.34</v>
+        <v>2.82</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="R18" t="n">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="S18" t="n">
-        <v>2.74</v>
+        <v>2.3</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Y18" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA18" t="n">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AD18" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AE18" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AL18" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.64</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.66</v>
+        <v>2.02</v>
       </c>
       <c r="H19" t="n">
-        <v>2.62</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.64</v>
+        <v>4.3</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>3.05</v>
+        <v>2.08</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.45</v>
+        <v>1.87</v>
       </c>
       <c r="R19" t="n">
-        <v>1.83</v>
+        <v>1.43</v>
       </c>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X19" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL19" t="n">
         <v>34</v>
       </c>
-      <c r="Y19" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>27</v>
-      </c>
       <c r="AM19" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AN19" t="n">
         <v>12.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.28</v>
+        <v>2.68</v>
       </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>2.72</v>
       </c>
       <c r="H20" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG20" t="n">
         <v>12</v>
       </c>
-      <c r="I20" t="n">
-        <v>13</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>530</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11</v>
-      </c>
       <c r="AH20" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10.5</v>
+        <v>40</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.1</v>
+        <v>17.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.02</v>
+        <v>2.52</v>
       </c>
       <c r="G21" t="n">
-        <v>2.04</v>
+        <v>2.54</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>2.88</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>2.06</v>
+        <v>2.76</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>1.42</v>
+        <v>1.72</v>
       </c>
       <c r="S21" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="U21" t="n">
-        <v>2.24</v>
+        <v>2.94</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO21" t="n">
-        <v>60</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="22">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G22" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I22" t="n">
         <v>2.72</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.88</v>
-      </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>2.24</v>
+        <v>3.05</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.74</v>
+        <v>1.45</v>
       </c>
       <c r="R22" t="n">
-        <v>1.51</v>
+        <v>1.87</v>
       </c>
       <c r="S22" t="n">
-        <v>2.84</v>
+        <v>2.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="U22" t="n">
-        <v>2.44</v>
+        <v>3.15</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X22" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Z22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA22" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD22" t="n">
         <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AF22" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AG22" t="n">
         <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AJ22" t="n">
         <v>40</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AN22" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,126 +3488,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Puerto Cabello</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>1.04</v>
       </c>
       <c r="G23" t="n">
-        <v>2.56</v>
+        <v>1000</v>
       </c>
       <c r="H23" t="n">
-        <v>2.84</v>
+        <v>1.04</v>
       </c>
       <c r="I23" t="n">
-        <v>2.94</v>
+        <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="O23" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>2.74</v>
+        <v>2.08</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.54</v>
+        <v>1.77</v>
       </c>
       <c r="R23" t="n">
-        <v>1.7</v>
+        <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>2.3</v>
+        <v>1.76</v>
       </c>
       <c r="T23" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>2.94</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X23" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3637,112 +3637,382 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Venezuelan Primera Division</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Zamora FC</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Deportivo La Guaira</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
         <v>1.04</v>
       </c>
-      <c r="G24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H24" t="n">
+      <c r="G25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.04</v>
       </c>
-      <c r="I24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="I25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J25" t="n">
         <v>1.01</v>
       </c>
-      <c r="K24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="K25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L25" t="n">
         <v>1.01</v>
       </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0</v>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LDU</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Orense Sporting Club</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="X26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,13 +670,13 @@
         <v>1.59</v>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H2" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -691,16 +691,16 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R2" t="n">
         <v>1.56</v>
@@ -709,7 +709,7 @@
         <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -718,7 +718,7 @@
         <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
@@ -751,7 +751,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>6.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,78 +788,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>1.76</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>6.4</v>
+        <v>1.49</v>
       </c>
       <c r="I3" t="n">
-        <v>8.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>1.54</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.64</v>
+        <v>1.24</v>
       </c>
       <c r="O3" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="W3" t="n">
-        <v>2.3</v>
+        <v>1.14</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,43 +868,43 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
         <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Slovenian 2 SNL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FC Voluntari</t>
+          <t>Krsko</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ACS Sepsi OSK</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>1.78</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -964,31 +964,31 @@
         <v>1.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
         <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>AS Solimane</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Ben Guerdane</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>1.6</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.78</v>
+        <v>1.02</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.73</v>
+        <v>1.2</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>AS Gabes</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>13.5</v>
+        <v>1.62</v>
       </c>
       <c r="G6" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="I6" t="n">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="K6" t="n">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>1.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.51</v>
+        <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>2.86</v>
+        <v>1.02</v>
       </c>
       <c r="T6" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>770</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>11:35:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.64</v>
+        <v>4.6</v>
       </c>
       <c r="G7" t="n">
-        <v>1.65</v>
+        <v>7.2</v>
       </c>
       <c r="H7" t="n">
-        <v>5.7</v>
+        <v>1.58</v>
       </c>
       <c r="I7" t="n">
-        <v>5.8</v>
+        <v>1.93</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>4.7</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>5.6</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>2.54</v>
+        <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>2.52</v>
+        <v>1.73</v>
       </c>
       <c r="T7" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>2.52</v>
+        <v>1.07</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1463,123 +1463,123 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.45</v>
+        <v>1.66</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>1.76</v>
       </c>
       <c r="H8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W8" t="n">
         <v>2.3</v>
       </c>
-      <c r="I8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.33</v>
-      </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>6.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
         <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG8" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,108 +1598,108 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>FC Voluntari</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>ACS Sepsi OSK</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>2.74</v>
+        <v>1.04</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>2.74</v>
+        <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.18</v>
+        <v>1.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.2</v>
+        <v>1.02</v>
       </c>
       <c r="R9" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="S9" t="n">
-        <v>6.4</v>
+        <v>1.41</v>
       </c>
       <c r="T9" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
@@ -1708,10 +1708,10 @@
         <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.92</v>
+        <v>2.24</v>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>2.36</v>
       </c>
       <c r="H10" t="n">
-        <v>2.26</v>
+        <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>2.48</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>2.32</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.61</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>2.48</v>
+        <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>2.42</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="W10" t="n">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF10" t="n">
         <v>17</v>
       </c>
-      <c r="Z10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>30</v>
-      </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>15.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.58</v>
+        <v>14.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1.72</v>
+        <v>15.5</v>
       </c>
       <c r="H11" t="n">
-        <v>5.4</v>
+        <v>1.28</v>
       </c>
       <c r="I11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K11" t="n">
         <v>6.6</v>
       </c>
-      <c r="J11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.8</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
         <v>2.18</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="R11" t="n">
         <v>1.46</v>
       </c>
       <c r="S11" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>2.42</v>
       </c>
       <c r="U11" t="n">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>1.18</v>
+        <v>4.4</v>
       </c>
       <c r="W11" t="n">
-        <v>2.38</v>
+        <v>1.07</v>
       </c>
       <c r="X11" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>28</v>
+        <v>7.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>60</v>
+        <v>6.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.5</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>55</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AI11" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19.5</v>
+        <v>860</v>
       </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.6</v>
+        <v>560</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="G12" t="n">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="K12" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.12</v>
+        <v>2.54</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W12" t="n">
-        <v>2.06</v>
+        <v>2.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,105 +2138,105 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>ZED FC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2.6</v>
       </c>
-      <c r="G13" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T13" t="n">
         <v>2.06</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.63</v>
-      </c>
       <c r="U13" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="V13" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="W13" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AC13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD13" t="n">
         <v>980</v>
       </c>
-      <c r="AD13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2248,7 +2248,7 @@
         <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,123 +2273,123 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.69</v>
+        <v>3.15</v>
       </c>
       <c r="G14" t="n">
-        <v>1.86</v>
+        <v>3.55</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>2.76</v>
       </c>
       <c r="I14" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>2.68</v>
       </c>
       <c r="K14" t="n">
-        <v>5.7</v>
+        <v>2.94</v>
       </c>
       <c r="L14" t="n">
-        <v>1.23</v>
+        <v>1.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>2.12</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.76</v>
       </c>
       <c r="P14" t="n">
-        <v>2.58</v>
+        <v>1.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.51</v>
+        <v>3.35</v>
       </c>
       <c r="R14" t="n">
-        <v>1.64</v>
+        <v>1.12</v>
       </c>
       <c r="S14" t="n">
-        <v>2.1</v>
+        <v>6.6</v>
       </c>
       <c r="T14" t="n">
-        <v>1.58</v>
+        <v>2.42</v>
       </c>
       <c r="U14" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="V14" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>2.16</v>
+        <v>1.4</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.49</v>
+        <v>2.56</v>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="I15" t="n">
-        <v>8.199999999999999</v>
+        <v>2.82</v>
       </c>
       <c r="J15" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>5.5</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>5.4</v>
+        <v>1.55</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.52</v>
+        <v>1.55</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="R15" t="n">
-        <v>1.61</v>
+        <v>1.21</v>
       </c>
       <c r="S15" t="n">
-        <v>2.32</v>
+        <v>1.71</v>
       </c>
       <c r="T15" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.13</v>
+        <v>1.55</v>
       </c>
       <c r="W15" t="n">
-        <v>2.66</v>
+        <v>1.47</v>
       </c>
       <c r="X15" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AD15" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.52</v>
+        <v>1.58</v>
       </c>
       <c r="G16" t="n">
-        <v>2.54</v>
+        <v>1.72</v>
       </c>
       <c r="H16" t="n">
-        <v>2.72</v>
+        <v>5.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.74</v>
+        <v>6.6</v>
       </c>
       <c r="J16" t="n">
         <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>8.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>2.18</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.39</v>
+        <v>1.69</v>
       </c>
       <c r="R16" t="n">
-        <v>1.99</v>
+        <v>1.46</v>
       </c>
       <c r="S16" t="n">
-        <v>1.96</v>
+        <v>2.72</v>
       </c>
       <c r="T16" t="n">
-        <v>1.39</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="n">
-        <v>3.4</v>
+        <v>2.08</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
       <c r="W16" t="n">
-        <v>1.64</v>
+        <v>2.38</v>
       </c>
       <c r="X16" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Z16" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AA16" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH16" t="n">
         <v>24</v>
       </c>
-      <c r="AC16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>13</v>
-      </c>
       <c r="AI16" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="n">
-        <v>38</v>
+        <v>19.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO16" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.36</v>
+        <v>2.6</v>
       </c>
       <c r="G17" t="n">
-        <v>1.37</v>
+        <v>3.05</v>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>2.46</v>
       </c>
       <c r="I17" t="n">
-        <v>11.5</v>
+        <v>2.78</v>
       </c>
       <c r="J17" t="n">
-        <v>5.7</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="S17" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="T17" t="n">
-        <v>2.08</v>
+        <v>1.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="V17" t="n">
-        <v>1.09</v>
+        <v>1.56</v>
       </c>
       <c r="W17" t="n">
-        <v>3.75</v>
+        <v>1.48</v>
       </c>
       <c r="X17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AD17" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>1.82</v>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>12.5</v>
+        <v>4.8</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="K18" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="R18" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="S18" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="U18" t="n">
-        <v>1.94</v>
+        <v>2.48</v>
       </c>
       <c r="V18" t="n">
-        <v>1.08</v>
+        <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="X18" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AD18" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.1</v>
+        <v>7.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1.49</v>
       </c>
       <c r="G19" t="n">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>5.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>2.08</v>
+        <v>2.52</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="R19" t="n">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="S19" t="n">
-        <v>3.15</v>
+        <v>2.32</v>
       </c>
       <c r="T19" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="U19" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="V19" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="W19" t="n">
-        <v>1.98</v>
+        <v>2.78</v>
       </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="Z19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD19" t="n">
         <v>32</v>
       </c>
-      <c r="AA19" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AE19" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AF19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG19" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG19" t="n">
-        <v>10</v>
-      </c>
       <c r="AH19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK19" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>19.5</v>
       </c>
       <c r="AL19" t="n">
         <v>34</v>
       </c>
       <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO19" t="n">
         <v>85</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.68</v>
+        <v>1.75</v>
       </c>
       <c r="G20" t="n">
-        <v>2.72</v>
+        <v>1.92</v>
       </c>
       <c r="H20" t="n">
-        <v>2.78</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
         <v>1.73</v>
       </c>
       <c r="R20" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="S20" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="T20" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="U20" t="n">
-        <v>2.5</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
-        <v>1.55</v>
+        <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>1.58</v>
+        <v>2.08</v>
       </c>
       <c r="X20" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>19</v>
-      </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G21" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H21" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="I21" t="n">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="J21" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>6.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="P21" t="n">
-        <v>2.76</v>
+        <v>3.35</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="S21" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="T21" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="U21" t="n">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="V21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W21" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="X21" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="Z21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA21" t="n">
         <v>44</v>
       </c>
       <c r="AB21" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
         <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AJ21" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="n">
         <v>22</v>
       </c>
       <c r="AL21" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AM21" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AN21" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.62</v>
+        <v>1.37</v>
       </c>
       <c r="G22" t="n">
-        <v>2.64</v>
+        <v>1.38</v>
       </c>
       <c r="H22" t="n">
-        <v>2.7</v>
+        <v>10.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.72</v>
+        <v>11.5</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>7.6</v>
+        <v>5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="P22" t="n">
-        <v>3.05</v>
+        <v>2.32</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.45</v>
+        <v>1.71</v>
       </c>
       <c r="R22" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="S22" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T22" t="n">
         <v>2.1</v>
       </c>
-      <c r="T22" t="n">
-        <v>1.43</v>
-      </c>
       <c r="U22" t="n">
-        <v>3.15</v>
+        <v>1.86</v>
       </c>
       <c r="V22" t="n">
-        <v>1.58</v>
+        <v>1.09</v>
       </c>
       <c r="W22" t="n">
-        <v>1.61</v>
+        <v>3.6</v>
       </c>
       <c r="X22" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Z22" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="AA22" t="n">
-        <v>40</v>
+        <v>410</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="n">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="AF22" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="AJ22" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AL22" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AM22" t="n">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>11.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Puerto Cabello</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.04</v>
+        <v>1.28</v>
       </c>
       <c r="G23" t="n">
-        <v>1000</v>
+        <v>1.29</v>
       </c>
       <c r="H23" t="n">
-        <v>1.04</v>
+        <v>12.5</v>
       </c>
       <c r="I23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="J23" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="K23" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>2.08</v>
+        <v>2.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.77</v>
+        <v>1.52</v>
       </c>
       <c r="R23" t="n">
-        <v>1.18</v>
+        <v>1.71</v>
       </c>
       <c r="S23" t="n">
-        <v>1.76</v>
+        <v>2.32</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W23" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nacional Potosi</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Blooming Santa Cruz</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
         <v>2.02</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="J24" t="n">
         <v>3.75</v>
       </c>
       <c r="K24" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="L24" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.47</v>
+        <v>1.86</v>
       </c>
       <c r="R24" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="S24" t="n">
-        <v>2.16</v>
+        <v>3.15</v>
       </c>
       <c r="T24" t="n">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="U24" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="V24" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
         <v>1.98</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN24" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,260 +3758,935 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Zamora FC</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Deportivo La Guaira</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.04</v>
+        <v>2.68</v>
       </c>
       <c r="G25" t="n">
-        <v>1000</v>
+        <v>2.72</v>
       </c>
       <c r="H25" t="n">
-        <v>1.04</v>
+        <v>2.76</v>
       </c>
       <c r="I25" t="n">
-        <v>1000</v>
+        <v>2.8</v>
       </c>
       <c r="J25" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>1.78</v>
+        <v>2.32</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.12</v>
+        <v>1.73</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="S25" t="n">
-        <v>1.01</v>
+        <v>2.82</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>2.54</v>
       </c>
       <c r="V25" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="W25" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Bodo Glimt</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X26" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>48</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X27" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Venezuelan Primera Division</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Puerto Cabello</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Nacional Potosi</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Blooming Santa Cruz</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Venezuelan Primera Division</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Zamora FC</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Deportivo La Guaira</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Ecuadorian Serie A</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>2025-11-04</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>21:00:00</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>LDU</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Orense Sporting Club</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="F31" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.58</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H31" t="n">
         <v>7.4</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I31" t="n">
         <v>8</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J31" t="n">
         <v>4.1</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K31" t="n">
         <v>4.8</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O31" t="n">
         <v>1.34</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V26" t="n">
+      <c r="P31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.14</v>
       </c>
-      <c r="W26" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="X26" t="n">
+      <c r="W31" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="X31" t="n">
         <v>15</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Y31" t="n">
         <v>23</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="Z31" t="n">
         <v>75</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AA31" t="n">
         <v>360</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AB31" t="n">
         <v>7.6</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AC31" t="n">
         <v>11</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AD31" t="n">
         <v>980</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AE31" t="n">
         <v>180</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AF31" t="n">
         <v>10</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AG31" t="n">
         <v>11</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AH31" t="n">
         <v>980</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AI31" t="n">
         <v>160</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AJ31" t="n">
         <v>14</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AK31" t="n">
         <v>18.5</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AL31" t="n">
         <v>48</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AM31" t="n">
         <v>230</v>
       </c>
-      <c r="AN26" t="n">
+      <c r="AN31" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AO26" t="n">
+      <c r="AO31" t="n">
         <v>280</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.59</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.61</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
         <v>4.8</v>
@@ -700,37 +700,37 @@
         <v>2.42</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
         <v>1.56</v>
       </c>
       <c r="S2" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T2" t="n">
         <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
         <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB2" t="n">
         <v>10.5</v>
@@ -739,7 +739,7 @@
         <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
         <v>75</v>
@@ -751,7 +751,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -766,7 +766,7 @@
         <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
         <v>6.8</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
         <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
         <v>4.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.54</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
         <v>4.9</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
@@ -835,19 +835,19 @@
         <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
         <v>1.29</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.96</v>
+        <v>1.09</v>
       </c>
       <c r="G4" t="n">
         <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="I4" t="n">
         <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>1.78</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="n">
         <v>7.4</v>
@@ -961,28 +961,28 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.58</v>
       </c>
       <c r="S4" t="n">
         <v>1.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V4" t="n">
         <v>1.55</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.6</v>
+        <v>2.18</v>
       </c>
       <c r="I5" t="n">
         <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>4.8</v>
@@ -1096,13 +1096,13 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.02</v>
+        <v>2.06</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="Q5" t="n">
         <v>1.01</v>
@@ -1111,19 +1111,19 @@
         <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V5" t="n">
         <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
         <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
         <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K6" t="n">
         <v>4.6</v>
@@ -1231,28 +1231,28 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="Q6" t="n">
         <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S6" t="n">
-        <v>1.02</v>
+        <v>1.78</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V6" t="n">
         <v>1.2</v>
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G7" t="n">
         <v>7.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="I7" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>1.73</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="W7" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1411,10 +1411,10 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G8" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="H8" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.56</v>
@@ -1501,10 +1501,10 @@
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="O8" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
         <v>1.54</v>
@@ -1516,10 +1516,10 @@
         <v>1.19</v>
       </c>
       <c r="S8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U8" t="n">
         <v>1.61</v>
@@ -1528,7 +1528,7 @@
         <v>1.15</v>
       </c>
       <c r="W8" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
         <v>980</v>
@@ -1555,10 +1555,10 @@
         <v>200</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1567,19 +1567,19 @@
         <v>210</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="G9" t="n">
         <v>1000</v>
@@ -1624,7 +1624,7 @@
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.02</v>
+        <v>1.56</v>
       </c>
       <c r="K9" t="n">
         <v>1000</v>
@@ -1636,7 +1636,7 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
@@ -1654,13 +1654,13 @@
         <v>1.41</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
         <v>1.01</v>
@@ -1759,100 +1759,100 @@
         <v>3.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
         <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S10" t="n">
         <v>3.3</v>
       </c>
-      <c r="O10" t="n">
+      <c r="T10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.35</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.37</v>
       </c>
       <c r="W10" t="n">
         <v>1.73</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
         <v>15.5</v>
       </c>
       <c r="H11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.28</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.29</v>
       </c>
       <c r="J11" t="n">
         <v>6.4</v>
@@ -1900,7 +1900,7 @@
         <v>6.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -1912,10 +1912,10 @@
         <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
         <v>1.46</v>
@@ -1924,16 +1924,16 @@
         <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="V11" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="W11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X11" t="n">
         <v>19.5</v>
@@ -1945,7 +1945,7 @@
         <v>6.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB11" t="n">
         <v>40</v>
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AG11" t="n">
         <v>55</v>
@@ -1972,22 +1972,22 @@
         <v>50</v>
       </c>
       <c r="AJ11" t="n">
-        <v>860</v>
+        <v>830</v>
       </c>
       <c r="AK11" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AM11" t="n">
         <v>300</v>
       </c>
       <c r="AN11" t="n">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="12">
@@ -2032,34 +2032,34 @@
         <v>4.5</v>
       </c>
       <c r="K12" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S12" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U12" t="n">
         <v>2.38</v>
@@ -2071,7 +2071,7 @@
         <v>2.5</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
         <v>26</v>
@@ -2080,10 +2080,10 @@
         <v>48</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
         <v>10.5</v>
@@ -2101,7 +2101,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
         <v>60</v>
@@ -2116,13 +2116,13 @@
         <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
         <v>6.8</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -2155,10 +2155,10 @@
         <v>3.45</v>
       </c>
       <c r="G13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="I13" t="n">
         <v>2.64</v>
@@ -2203,13 +2203,13 @@
         <v>1.61</v>
       </c>
       <c r="W13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
         <v>980</v>
@@ -2221,7 +2221,7 @@
         <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
         <v>980</v>
@@ -2251,7 +2251,7 @@
         <v>110</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
@@ -2305,13 +2305,13 @@
         <v>2.94</v>
       </c>
       <c r="L14" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="M14" t="n">
         <v>1.15</v>
       </c>
       <c r="N14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O14" t="n">
         <v>1.76</v>
@@ -2338,10 +2338,10 @@
         <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X14" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Y14" t="n">
         <v>8.4</v>
@@ -2368,13 +2368,13 @@
         <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI14" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ14" t="n">
         <v>1000</v>
@@ -2383,10 +2383,10 @@
         <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AM14" t="n">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="AN14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,102 +2408,102 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.56</v>
+        <v>1.82</v>
       </c>
       <c r="G15" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.1</v>
       </c>
-      <c r="H15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K15" t="n">
-        <v>950</v>
+        <v>5.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.59</v>
+        <v>2.18</v>
       </c>
       <c r="R15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.21</v>
       </c>
-      <c r="S15" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.55</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.47</v>
+        <v>1.86</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
@@ -2524,16 +2524,16 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.58</v>
+        <v>2.68</v>
       </c>
       <c r="G16" t="n">
-        <v>1.72</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>5.4</v>
+        <v>2.32</v>
       </c>
       <c r="I16" t="n">
-        <v>6.6</v>
+        <v>2.62</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="S16" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="U16" t="n">
-        <v>2.08</v>
+        <v>2.42</v>
       </c>
       <c r="V16" t="n">
-        <v>1.18</v>
+        <v>1.61</v>
       </c>
       <c r="W16" t="n">
-        <v>2.38</v>
+        <v>1.47</v>
       </c>
       <c r="X16" t="n">
         <v>24</v>
       </c>
       <c r="Y16" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM16" t="n">
         <v>75</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN16" t="n">
-        <v>9.6</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="17">
@@ -2683,118 +2683,118 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>1.59</v>
       </c>
       <c r="G17" t="n">
-        <v>3.05</v>
+        <v>1.71</v>
       </c>
       <c r="H17" t="n">
-        <v>2.46</v>
+        <v>5.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.78</v>
+        <v>6.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.06</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.26</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="W17" t="n">
-        <v>1.48</v>
+        <v>2.38</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2818,73 +2818,73 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.69</v>
+        <v>2.68</v>
       </c>
       <c r="G18" t="n">
-        <v>1.82</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K18" t="n">
         <v>4.1</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.8</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>2.72</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="R18" t="n">
-        <v>1.69</v>
+        <v>1.41</v>
       </c>
       <c r="S18" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="V18" t="n">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="W18" t="n">
-        <v>2.2</v>
+        <v>1.48</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,43 +2893,43 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="G19" t="n">
-        <v>1.56</v>
+        <v>1.87</v>
       </c>
       <c r="H19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
         <v>6</v>
       </c>
-      <c r="I19" t="n">
-        <v>7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.4</v>
-      </c>
       <c r="O19" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P19" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.52</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.18</v>
-      </c>
       <c r="V19" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="W19" t="n">
-        <v>2.78</v>
+        <v>2.14</v>
       </c>
       <c r="X19" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Y19" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD19" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO19" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,73 +3088,73 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="G20" t="n">
-        <v>1.92</v>
+        <v>1.56</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="K20" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="R20" t="n">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="S20" t="n">
-        <v>2.62</v>
+        <v>2.32</v>
       </c>
       <c r="T20" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U20" t="n">
         <v>2.16</v>
       </c>
       <c r="V20" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="W20" t="n">
-        <v>2.08</v>
+        <v>2.78</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -3163,43 +3163,43 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF20" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.54</v>
+        <v>1.75</v>
       </c>
       <c r="G21" t="n">
-        <v>2.58</v>
+        <v>1.93</v>
       </c>
       <c r="H21" t="n">
-        <v>2.72</v>
+        <v>4.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.74</v>
+        <v>5.8</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N21" t="n">
         <v>4.2</v>
       </c>
-      <c r="L21" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="O21" t="n">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>3.35</v>
+        <v>2.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="R21" t="n">
-        <v>1.95</v>
+        <v>1.43</v>
       </c>
       <c r="S21" t="n">
-        <v>2.02</v>
+        <v>2.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="U21" t="n">
-        <v>3.35</v>
+        <v>2.14</v>
       </c>
       <c r="V21" t="n">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>1.63</v>
+        <v>2.06</v>
       </c>
       <c r="X21" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AG21" t="n">
         <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.37</v>
+        <v>2.52</v>
       </c>
       <c r="G22" t="n">
-        <v>1.38</v>
+        <v>2.56</v>
       </c>
       <c r="H22" t="n">
-        <v>10.5</v>
+        <v>2.74</v>
       </c>
       <c r="I22" t="n">
-        <v>11.5</v>
+        <v>2.76</v>
       </c>
       <c r="J22" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="K22" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O22" t="n">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="P22" t="n">
-        <v>2.32</v>
+        <v>3.35</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.71</v>
+        <v>1.41</v>
       </c>
       <c r="R22" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>2.78</v>
+        <v>1.98</v>
       </c>
       <c r="T22" t="n">
-        <v>2.1</v>
+        <v>1.39</v>
       </c>
       <c r="U22" t="n">
-        <v>1.86</v>
+        <v>3.4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.09</v>
+        <v>1.56</v>
       </c>
       <c r="W22" t="n">
-        <v>3.6</v>
+        <v>1.64</v>
       </c>
       <c r="X22" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Z22" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="AA22" t="n">
-        <v>410</v>
+        <v>44</v>
       </c>
       <c r="AB22" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM22" t="n">
         <v>38</v>
       </c>
-      <c r="AE22" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ22" t="n">
+      <c r="AN22" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AO22" t="n">
         <v>11</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="G23" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="H23" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="K23" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>2.8</v>
+        <v>2.32</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="R23" t="n">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>2.32</v>
+        <v>2.78</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="V23" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W23" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="X23" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AA23" t="n">
-        <v>900</v>
+        <v>410</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AC23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM23" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="AO23" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1.28</v>
       </c>
       <c r="G24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>7</v>
+      </c>
+      <c r="K24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T24" t="n">
         <v>2.02</v>
       </c>
-      <c r="H24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.76</v>
-      </c>
       <c r="U24" t="n">
-        <v>2.24</v>
+        <v>1.92</v>
       </c>
       <c r="V24" t="n">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="W24" t="n">
-        <v>1.98</v>
+        <v>4.5</v>
       </c>
       <c r="X24" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.5</v>
+        <v>48</v>
       </c>
       <c r="Z24" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="AA24" t="n">
-        <v>85</v>
+        <v>520</v>
       </c>
       <c r="AB24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF24" t="n">
         <v>8.4</v>
       </c>
-      <c r="AD24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AI24" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AJ24" t="n">
-        <v>23</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK24" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="AN24" t="n">
-        <v>12.5</v>
+        <v>3.95</v>
       </c>
       <c r="AO24" t="n">
-        <v>44</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.68</v>
+        <v>2.02</v>
       </c>
       <c r="G25" t="n">
-        <v>2.72</v>
+        <v>2.06</v>
       </c>
       <c r="H25" t="n">
-        <v>2.76</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
         <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="P25" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="R25" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="S25" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="T25" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="U25" t="n">
-        <v>2.54</v>
+        <v>2.24</v>
       </c>
       <c r="V25" t="n">
-        <v>1.55</v>
+        <v>1.31</v>
       </c>
       <c r="W25" t="n">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="X25" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AA25" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AB25" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AC25" t="n">
         <v>8.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AJ25" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AL25" t="n">
         <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AN25" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>18.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="I26" t="n">
-        <v>2.94</v>
+        <v>2.78</v>
       </c>
       <c r="J26" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="P26" t="n">
-        <v>2.84</v>
+        <v>2.32</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="R26" t="n">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="S26" t="n">
-        <v>2.24</v>
+        <v>2.82</v>
       </c>
       <c r="T26" t="n">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="U26" t="n">
-        <v>2.98</v>
+        <v>2.54</v>
       </c>
       <c r="V26" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="W26" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="X26" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z26" t="n">
         <v>20</v>
       </c>
-      <c r="Z26" t="n">
-        <v>25</v>
-      </c>
       <c r="AA26" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB26" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG26" t="n">
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AJ26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL26" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AN26" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="27">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.58</v>
+        <v>2.28</v>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="H27" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>2.74</v>
+        <v>3.25</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K27" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L27" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="S27" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="T27" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.44</v>
       </c>
-      <c r="U27" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W27" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="X27" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z27" t="n">
         <v>28</v>
       </c>
-      <c r="Y27" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>24</v>
-      </c>
       <c r="AA27" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AB27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH27" t="n">
         <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AJ27" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AL27" t="n">
         <v>25</v>
       </c>
       <c r="AM27" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO27" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,126 +4163,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Puerto Cabello</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.06</v>
+        <v>2.56</v>
       </c>
       <c r="G28" t="n">
-        <v>1000</v>
+        <v>2.58</v>
       </c>
       <c r="H28" t="n">
-        <v>1.04</v>
+        <v>2.74</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="J28" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="P28" t="n">
-        <v>2.08</v>
+        <v>3.15</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.77</v>
+        <v>1.45</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.88</v>
       </c>
       <c r="S28" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="29">
@@ -4312,58 +4312,58 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G29" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="H29" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I29" t="n">
         <v>7.8</v>
       </c>
       <c r="J29" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K29" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L29" t="n">
         <v>1.26</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O29" t="n">
         <v>1.16</v>
       </c>
       <c r="P29" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="R29" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="S29" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="T29" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U29" t="n">
         <v>2.2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W29" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4447,58 +4447,58 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.04</v>
+        <v>5.2</v>
       </c>
       <c r="G30" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="I30" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="J30" t="n">
-        <v>1.09</v>
+        <v>3.05</v>
       </c>
       <c r="K30" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.53</v>
       </c>
       <c r="M30" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="N30" t="n">
-        <v>2.8</v>
+        <v>2.36</v>
       </c>
       <c r="O30" t="n">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="P30" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="S30" t="n">
-        <v>2.4</v>
+        <v>1.05</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="V30" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="W30" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4558,136 +4558,271 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Venezuelan Primera Division</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Puerto Cabello</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Ecuadorian Serie A</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>2025-11-04</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>21:00:00</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>LDU</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Orense Sporting Club</t>
         </is>
       </c>
-      <c r="F31" t="n">
+      <c r="F32" t="n">
         <v>1.51</v>
       </c>
-      <c r="G31" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="G32" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H32" t="n">
         <v>7.4</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>8</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J32" t="n">
         <v>4.1</v>
       </c>
-      <c r="K31" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L31" t="n">
+      <c r="K32" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L32" t="n">
         <v>1.41</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M32" t="n">
         <v>1.07</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N32" t="n">
         <v>3.35</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O32" t="n">
         <v>1.34</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P32" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" t="n">
+      <c r="Q32" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R32" t="n">
         <v>1.3</v>
       </c>
-      <c r="S31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T31" t="n">
+      <c r="S32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T32" t="n">
         <v>2.12</v>
       </c>
-      <c r="U31" t="n">
+      <c r="U32" t="n">
         <v>1.72</v>
       </c>
-      <c r="V31" t="n">
+      <c r="V32" t="n">
         <v>1.14</v>
       </c>
-      <c r="W31" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="X31" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y31" t="n">
+      <c r="W32" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="X32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y32" t="n">
         <v>23</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="Z32" t="n">
         <v>75</v>
       </c>
-      <c r="AA31" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC31" t="n">
+      <c r="AA32" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG32" t="n">
         <v>11</v>
       </c>
-      <c r="AD31" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF31" t="n">
+      <c r="AH32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN32" t="n">
         <v>10</v>
       </c>
-      <c r="AG31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>280</v>
+      <c r="AO32" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G2" t="n">
         <v>1.59</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.6</v>
@@ -691,31 +691,31 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q2" t="n">
         <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="T2" t="n">
         <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
         <v>2.68</v>
@@ -730,10 +730,10 @@
         <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
@@ -742,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AF2" t="n">
         <v>10.5</v>
@@ -754,25 +754,25 @@
         <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>30</v>
       </c>
       <c r="AM2" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO2" t="n">
         <v>90</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
         <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="I3" t="n">
         <v>4.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>2.8</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
         <v>1.03</v>
@@ -850,13 +850,13 @@
         <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="W3" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.09</v>
+        <v>2.62</v>
       </c>
       <c r="G4" t="n">
         <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="J4" t="n">
-        <v>1.2</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
         <v>1.1</v>
@@ -973,7 +973,7 @@
         <v>1.19</v>
       </c>
       <c r="R4" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
         <v>1.2</v>
@@ -985,10 +985,10 @@
         <v>1.03</v>
       </c>
       <c r="V4" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,31 +1072,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="I5" t="n">
         <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.06</v>
+        <v>1.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
@@ -1105,7 +1105,7 @@
         <v>1.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
         <v>1.12</v>
@@ -1120,7 +1120,7 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="W5" t="n">
         <v>1.5</v>
@@ -1207,37 +1207,37 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="G6" t="n">
         <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="I6" t="n">
         <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.2</v>
+        <v>2.62</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="Q6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1351,7 +1351,7 @@
         <v>1.64</v>
       </c>
       <c r="I7" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="J7" t="n">
         <v>3.4</v>
@@ -1372,7 +1372,7 @@
         <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q7" t="n">
         <v>1.86</v>
@@ -1384,13 +1384,13 @@
         <v>3.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
         <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="W7" t="n">
         <v>1.16</v>
@@ -1402,10 +1402,10 @@
         <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
         <v>1000</v>
@@ -1417,7 +1417,7 @@
         <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="G8" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="H8" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
         <v>1.56</v>
@@ -1504,13 +1504,13 @@
         <v>2.62</v>
       </c>
       <c r="O8" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P8" t="n">
         <v>1.53</v>
       </c>
-      <c r="P8" t="n">
-        <v>1.54</v>
-      </c>
       <c r="Q8" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="R8" t="n">
         <v>1.19</v>
@@ -1519,22 +1519,22 @@
         <v>4.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W8" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1546,13 +1546,13 @@
         <v>7</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AE8" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF8" t="n">
         <v>10.5</v>
@@ -1561,10 +1561,10 @@
         <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ8" t="n">
         <v>22</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.54</v>
+        <v>2.26</v>
       </c>
       <c r="G9" t="n">
         <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J9" t="n">
-        <v>1.56</v>
+        <v>2.22</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1663,7 +1663,7 @@
         <v>1.53</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,40 +1747,40 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G10" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H10" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J10" t="n">
         <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>1.1</v>
+        <v>2.68</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.48</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
         <v>1.25</v>
@@ -1789,16 +1789,16 @@
         <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
         <v>1.03</v>
       </c>
       <c r="V10" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W10" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1816,7 +1816,7 @@
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1885,13 +1885,13 @@
         <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="I11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="J11" t="n">
         <v>6.4</v>
@@ -1906,37 +1906,37 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R11" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="T11" t="n">
         <v>2.46</v>
       </c>
       <c r="U11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V11" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
         <v>7.6</v>
@@ -1945,7 +1945,7 @@
         <v>6.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AB11" t="n">
         <v>40</v>
@@ -1957,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF11" t="n">
         <v>160</v>
@@ -1969,7 +1969,7 @@
         <v>42</v>
       </c>
       <c r="AI11" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ11" t="n">
         <v>830</v>
@@ -1978,13 +1978,13 @@
         <v>340</v>
       </c>
       <c r="AL11" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="AM11" t="n">
         <v>300</v>
       </c>
       <c r="AN11" t="n">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="AO11" t="n">
         <v>5.3</v>
@@ -2023,7 +2023,7 @@
         <v>1.66</v>
       </c>
       <c r="H12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I12" t="n">
         <v>5.8</v>
@@ -2035,7 +2035,7 @@
         <v>4.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2047,16 +2047,16 @@
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R12" t="n">
         <v>1.64</v>
       </c>
       <c r="S12" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T12" t="n">
         <v>1.68</v>
@@ -2071,7 +2071,7 @@
         <v>2.5</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
         <v>26</v>
@@ -2083,7 +2083,7 @@
         <v>140</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
         <v>10.5</v>
@@ -2101,7 +2101,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>60</v>
@@ -2110,10 +2110,10 @@
         <v>16.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM12" t="n">
         <v>75</v>
@@ -2122,7 +2122,7 @@
         <v>6.8</v>
       </c>
       <c r="AO12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="G13" t="n">
         <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I13" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J13" t="n">
         <v>2.94</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
         <v>1.59</v>
@@ -2185,7 +2185,7 @@
         <v>1.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
@@ -2200,13 +2200,13 @@
         <v>1.74</v>
       </c>
       <c r="V13" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
         <v>1.32</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
@@ -2296,16 +2296,16 @@
         <v>2.76</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K14" t="n">
         <v>2.94</v>
       </c>
       <c r="L14" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="M14" t="n">
         <v>1.15</v>
@@ -2317,7 +2317,7 @@
         <v>1.76</v>
       </c>
       <c r="P14" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q14" t="n">
         <v>3.35</v>
@@ -2326,10 +2326,10 @@
         <v>1.12</v>
       </c>
       <c r="S14" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="T14" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="U14" t="n">
         <v>1.6</v>
@@ -2350,7 +2350,7 @@
         <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AB14" t="n">
         <v>9.4</v>
@@ -2362,7 +2362,7 @@
         <v>18.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AF14" t="n">
         <v>25</v>
@@ -2380,7 +2380,7 @@
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AL14" t="n">
         <v>140</v>
@@ -2422,28 +2422,28 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="G15" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>5.1</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
         <v>2.5</v>
@@ -2458,10 +2458,10 @@
         <v>2.18</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S15" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="T15" t="n">
         <v>2.08</v>
@@ -2470,13 +2470,13 @@
         <v>1.79</v>
       </c>
       <c r="V15" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="X15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>19</v>
@@ -2506,16 +2506,16 @@
         <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
         <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
         <v>2.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U16" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V16" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="W16" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X16" t="n">
         <v>24</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="AB16" t="n">
         <v>18.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AF16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH16" t="n">
         <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="n">
         <v>55</v>
       </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AL16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="17">
@@ -2701,7 +2701,7 @@
         <v>5.4</v>
       </c>
       <c r="I17" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J17" t="n">
         <v>4.1</v>
@@ -2719,31 +2719,31 @@
         <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
         <v>1.46</v>
       </c>
       <c r="S17" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T17" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U17" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W17" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X17" t="n">
         <v>24</v>
@@ -2767,22 +2767,22 @@
         <v>28</v>
       </c>
       <c r="AE17" t="n">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG17" t="n">
         <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AJ17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK17" t="n">
         <v>20</v>
@@ -2791,7 +2791,7 @@
         <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
         <v>9.800000000000001</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G18" t="n">
         <v>3.05</v>
@@ -2836,13 +2836,13 @@
         <v>2.44</v>
       </c>
       <c r="I18" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
         <v>1.3</v>
@@ -2851,7 +2851,7 @@
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.26</v>
@@ -2860,10 +2860,10 @@
         <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R18" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S18" t="n">
         <v>2.7</v>
@@ -2875,7 +2875,7 @@
         <v>2.24</v>
       </c>
       <c r="V18" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W18" t="n">
         <v>1.48</v>
@@ -2884,7 +2884,7 @@
         <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2908,10 +2908,10 @@
         <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2965,10 +2965,10 @@
         <v>1.71</v>
       </c>
       <c r="G19" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
         <v>4.8</v>
@@ -2980,7 +2980,7 @@
         <v>5.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
@@ -2992,7 +2992,7 @@
         <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="Q19" t="n">
         <v>1.46</v>
@@ -3010,16 +3010,16 @@
         <v>2.52</v>
       </c>
       <c r="V19" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X19" t="n">
         <v>980</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3034,7 +3034,7 @@
         <v>14</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
@@ -3052,10 +3052,10 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
         <v>980</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.199999999999999</v>
+        <v>29</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.5</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.56</v>
-      </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I20" t="n">
         <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="K20" t="n">
         <v>5.4</v>
@@ -3127,7 +3127,7 @@
         <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q20" t="n">
         <v>1.54</v>
@@ -3136,28 +3136,28 @@
         <v>1.61</v>
       </c>
       <c r="S20" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T20" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V20" t="n">
         <v>1.16</v>
       </c>
       <c r="W20" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
         <v>32</v>
       </c>
       <c r="Y20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
@@ -3169,19 +3169,19 @@
         <v>14</v>
       </c>
       <c r="AD20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
         <v>95</v>
       </c>
       <c r="AF20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,28 +3232,28 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="G21" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H21" t="n">
         <v>4.4</v>
       </c>
       <c r="I21" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
         <v>1.29</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
         <v>4.2</v>
@@ -3262,49 +3262,49 @@
         <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="R21" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S21" t="n">
         <v>2.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U21" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V21" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W21" t="n">
         <v>2.06</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
@@ -3313,22 +3313,22 @@
         <v>14.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AJ21" t="n">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
@@ -3370,13 +3370,13 @@
         <v>2.52</v>
       </c>
       <c r="G22" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H22" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="I22" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="J22" t="n">
         <v>4.1</v>
@@ -3388,40 +3388,40 @@
         <v>1.21</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P22" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q22" t="n">
         <v>1.41</v>
       </c>
       <c r="R22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S22" t="n">
         <v>2</v>
       </c>
-      <c r="S22" t="n">
-        <v>1.98</v>
-      </c>
       <c r="T22" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U22" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="V22" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W22" t="n">
         <v>1.64</v>
       </c>
       <c r="X22" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y22" t="n">
         <v>24</v>
@@ -3439,7 +3439,7 @@
         <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE22" t="n">
         <v>23</v>
@@ -3451,7 +3451,7 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI22" t="n">
         <v>25</v>
@@ -3469,7 +3469,7 @@
         <v>38</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO22" t="n">
         <v>11</v>
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="G23" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="H23" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P23" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R23" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="S23" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="T23" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V23" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W23" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="X23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y23" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Z23" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AE23" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AF23" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AH23" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AL23" t="n">
         <v>36</v>
       </c>
       <c r="AM23" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO23" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.28</v>
       </c>
-      <c r="G24" t="n">
-        <v>1.29</v>
-      </c>
       <c r="H24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I24" t="n">
         <v>13.5</v>
@@ -3661,28 +3661,28 @@
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q24" t="n">
         <v>1.51</v>
       </c>
       <c r="R24" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S24" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T24" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U24" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
         <v>1.08</v>
@@ -3694,13 +3694,13 @@
         <v>34</v>
       </c>
       <c r="Y24" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z24" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AA24" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="AB24" t="n">
         <v>11</v>
@@ -3709,7 +3709,7 @@
         <v>15</v>
       </c>
       <c r="AD24" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE24" t="n">
         <v>200</v>
@@ -3718,10 +3718,10 @@
         <v>8.4</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
         <v>150</v>
@@ -3736,13 +3736,13 @@
         <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN24" t="n">
         <v>3.95</v>
       </c>
       <c r="AO24" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
@@ -3775,7 +3775,7 @@
         <v>2.02</v>
       </c>
       <c r="G25" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H25" t="n">
         <v>4.1</v>
@@ -3784,7 +3784,7 @@
         <v>4.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
         <v>3.8</v>
@@ -3799,10 +3799,10 @@
         <v>4.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q25" t="n">
         <v>1.87</v>
@@ -3811,10 +3811,10 @@
         <v>1.43</v>
       </c>
       <c r="S25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U25" t="n">
         <v>2.24</v>
@@ -3823,7 +3823,7 @@
         <v>1.31</v>
       </c>
       <c r="W25" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="X25" t="n">
         <v>16</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.68</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2.7</v>
       </c>
       <c r="H26" t="n">
         <v>2.76</v>
       </c>
       <c r="I26" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J26" t="n">
         <v>3.7</v>
@@ -3931,34 +3931,34 @@
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
         <v>1.24</v>
       </c>
       <c r="P26" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R26" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S26" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="T26" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U26" t="n">
         <v>2.54</v>
       </c>
       <c r="V26" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W26" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X26" t="n">
         <v>19</v>
@@ -3973,10 +3973,10 @@
         <v>42</v>
       </c>
       <c r="AB26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD26" t="n">
         <v>12</v>
@@ -3985,13 +3985,13 @@
         <v>27</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI26" t="n">
         <v>36</v>
@@ -4000,7 +4000,7 @@
         <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL26" t="n">
         <v>34</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G27" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
         <v>3.2</v>
@@ -4054,67 +4054,67 @@
         <v>3.25</v>
       </c>
       <c r="J27" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K27" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P27" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R27" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S27" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="T27" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="U27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="V27" t="n">
         <v>1.44</v>
       </c>
       <c r="W27" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="X27" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="n">
         <v>55</v>
       </c>
       <c r="AB27" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE27" t="n">
         <v>28</v>
@@ -4123,13 +4123,13 @@
         <v>19.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
         <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ27" t="n">
         <v>32</v>
@@ -4144,10 +4144,10 @@
         <v>44</v>
       </c>
       <c r="AN27" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="28">
@@ -4177,25 +4177,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="G28" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="H28" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="I28" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -4213,10 +4213,10 @@
         <v>1.45</v>
       </c>
       <c r="R28" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S28" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T28" t="n">
         <v>1.43</v>
@@ -4225,22 +4225,22 @@
         <v>3.2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="W28" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="X28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA28" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB28" t="n">
         <v>21</v>
@@ -4249,40 +4249,40 @@
         <v>10.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG28" t="n">
         <v>12.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ28" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AN28" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AO28" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="29">
@@ -4312,64 +4312,64 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="G29" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="H29" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I29" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
         <v>4.5</v>
       </c>
       <c r="K29" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
         <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P29" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="R29" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="S29" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="T29" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="U29" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="V29" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="W29" t="n">
-        <v>2.58</v>
+        <v>2.16</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
@@ -4381,10 +4381,10 @@
         <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
@@ -4396,7 +4396,7 @@
         <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>6.4</v>
+        <v>26</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4447,40 +4447,40 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>8.800000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="H30" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="I30" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J30" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M30" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N30" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O30" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="P30" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R30" t="n">
         <v>1.17</v>
@@ -4489,22 +4489,22 @@
         <v>1.05</v>
       </c>
       <c r="T30" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="U30" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="V30" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="W30" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4582,64 +4582,64 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.06</v>
+        <v>1.9</v>
       </c>
       <c r="G31" t="n">
-        <v>1000</v>
+        <v>2.24</v>
       </c>
       <c r="H31" t="n">
-        <v>1.04</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="J31" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K31" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="O31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.26</v>
       </c>
-      <c r="P31" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W31" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z31" t="n">
         <v>1000</v>
@@ -4648,25 +4648,25 @@
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
@@ -4675,7 +4675,7 @@
         <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
@@ -4684,7 +4684,7 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4732,7 +4732,7 @@
         <v>4.1</v>
       </c>
       <c r="K32" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L32" t="n">
         <v>1.41</v>
@@ -4756,7 +4756,7 @@
         <v>1.3</v>
       </c>
       <c r="S32" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="T32" t="n">
         <v>2.12</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.57</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.59</v>
-      </c>
       <c r="H2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>4.6</v>
@@ -694,10 +694,10 @@
         <v>5.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q2" t="n">
         <v>1.67</v>
@@ -706,25 +706,25 @@
         <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V2" t="n">
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z2" t="n">
         <v>55</v>
@@ -733,7 +733,7 @@
         <v>180</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
@@ -742,37 +742,37 @@
         <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AF2" t="n">
         <v>10.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO2" t="n">
         <v>95</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -805,43 +805,43 @@
         <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="J3" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.51</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.32</v>
+        <v>1.96</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08</v>
+        <v>1.45</v>
       </c>
       <c r="P3" t="n">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.11</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="T3" t="n">
         <v>1.03</v>
@@ -850,19 +850,19 @@
         <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.62</v>
+        <v>4.5</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="I4" t="n">
-        <v>2.42</v>
+        <v>1.82</v>
       </c>
       <c r="J4" t="n">
         <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
@@ -964,85 +964,85 @@
         <v>1.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.2</v>
+        <v>2.38</v>
       </c>
       <c r="T4" t="n">
-        <v>1.61</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
         <v>1.03</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>2.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN4" t="n">
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1072,91 +1072,91 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.06</v>
+        <v>2.9</v>
       </c>
       <c r="G5" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.14</v>
+        <v>2.84</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>3.35</v>
       </c>
       <c r="J5" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="K5" t="n">
-        <v>3.45</v>
+        <v>2.96</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="N5" t="n">
-        <v>1.1</v>
+        <v>2.02</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="P5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>3.05</v>
       </c>
       <c r="R5" t="n">
         <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>3.85</v>
       </c>
       <c r="T5" t="n">
-        <v>1.03</v>
+        <v>2.42</v>
       </c>
       <c r="U5" t="n">
-        <v>1.03</v>
+        <v>1.55</v>
       </c>
       <c r="V5" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="W5" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1207,46 +1207,46 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="H6" t="n">
-        <v>2.18</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
         <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="R6" t="n">
         <v>1.13</v>
       </c>
       <c r="S6" t="n">
-        <v>1.78</v>
+        <v>2.64</v>
       </c>
       <c r="T6" t="n">
         <v>1.03</v>
@@ -1258,7 +1258,7 @@
         <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="G7" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="I7" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.32</v>
@@ -1372,10 +1372,10 @@
         <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R7" t="n">
         <v>1.36</v>
@@ -1384,22 +1384,22 @@
         <v>3.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
         <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="W7" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>40</v>
@@ -1411,13 +1411,13 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1480,16 +1480,16 @@
         <v>1.72</v>
       </c>
       <c r="G8" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I8" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
         <v>3.65</v>
@@ -1501,25 +1501,25 @@
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="P8" t="n">
         <v>1.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
         <v>1.19</v>
       </c>
       <c r="S8" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U8" t="n">
         <v>1.62</v>
@@ -1528,58 +1528,58 @@
         <v>1.16</v>
       </c>
       <c r="W8" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.5</v>
+        <v>48</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AB8" t="n">
-        <v>7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="AE8" t="n">
         <v>190</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AI8" t="n">
         <v>200</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL8" t="n">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.26</v>
+        <v>1.81</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H9" t="n">
-        <v>1.3</v>
+        <v>2.02</v>
       </c>
       <c r="I9" t="n">
         <v>44</v>
       </c>
       <c r="J9" t="n">
-        <v>2.22</v>
+        <v>2.62</v>
       </c>
       <c r="K9" t="n">
         <v>3.5</v>
@@ -1636,22 +1636,22 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
         <v>1.03</v>
@@ -1660,10 +1660,10 @@
         <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>1.53</v>
+        <v>1.02</v>
       </c>
       <c r="W9" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1750,7 +1750,7 @@
         <v>2.22</v>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H10" t="n">
         <v>3.8</v>
@@ -1762,28 +1762,28 @@
         <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>2.68</v>
+        <v>1.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S10" t="n">
         <v>3.3</v>
@@ -1795,10 +1795,10 @@
         <v>1.03</v>
       </c>
       <c r="V10" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W10" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1906,22 +1906,22 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
         <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R11" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S11" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
         <v>2.46</v>
@@ -1930,13 +1930,13 @@
         <v>1.65</v>
       </c>
       <c r="V11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="n">
         <v>7.6</v>
@@ -1948,10 +1948,10 @@
         <v>8.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AC11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD11" t="n">
         <v>11</v>
@@ -1972,22 +1972,22 @@
         <v>48</v>
       </c>
       <c r="AJ11" t="n">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="AK11" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AL11" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AM11" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AN11" t="n">
         <v>520</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="G12" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="H12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I12" t="n">
         <v>5.7</v>
       </c>
-      <c r="I12" t="n">
-        <v>5.8</v>
-      </c>
       <c r="J12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K12" t="n">
         <v>4.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.3</v>
@@ -2041,22 +2041,22 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.61</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.64</v>
-      </c>
       <c r="S12" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T12" t="n">
         <v>1.68</v>
@@ -2065,34 +2065,34 @@
         <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W12" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="X12" t="n">
         <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
         <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF12" t="n">
         <v>11.5</v>
@@ -2104,22 +2104,22 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AO12" t="n">
         <v>55</v>
@@ -2155,16 +2155,16 @@
         <v>3.55</v>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I13" t="n">
         <v>2.6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K13" t="n">
         <v>3</v>
@@ -2176,25 +2176,25 @@
         <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="O13" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P13" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U13" t="n">
         <v>1.74</v>
@@ -2203,37 +2203,37 @@
         <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X13" t="n">
-        <v>38</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AA13" t="n">
         <v>980</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
         <v>980</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AH13" t="n">
         <v>980</v>
@@ -2248,10 +2248,10 @@
         <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>110</v>
+        <v>340</v>
       </c>
       <c r="AM13" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
@@ -2290,13 +2290,13 @@
         <v>3.15</v>
       </c>
       <c r="G14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>2.7</v>
@@ -2338,52 +2338,52 @@
         <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X14" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AA14" t="n">
         <v>420</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AH14" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="AJ14" t="n">
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AL14" t="n">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="AM14" t="n">
         <v>390</v>
@@ -2425,10 +2425,10 @@
         <v>1.96</v>
       </c>
       <c r="G15" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I15" t="n">
         <v>5.1</v>
@@ -2437,49 +2437,49 @@
         <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.52</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="P15" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T15" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U15" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W15" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,43 +2488,43 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AH15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
         <v>60</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1000</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,52 +2557,52 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="G16" t="n">
         <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I16" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="U16" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="V16" t="n">
         <v>1.68</v>
@@ -2611,55 +2611,55 @@
         <v>1.45</v>
       </c>
       <c r="X16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z16" t="n">
         <v>19.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="AB16" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD16" t="n">
         <v>12.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AG16" t="n">
         <v>14.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>70</v>
       </c>
       <c r="AJ16" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="AK16" t="n">
         <v>90</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AM16" t="n">
         <v>260</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>14.5</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G17" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I17" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J17" t="n">
         <v>4.1</v>
@@ -2710,91 +2710,91 @@
         <v>4.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R17" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="T17" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U17" t="n">
         <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W17" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
         <v>24</v>
       </c>
-      <c r="Y17" t="n">
-        <v>27</v>
-      </c>
       <c r="Z17" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AE17" t="n">
         <v>420</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AI17" t="n">
         <v>330</v>
       </c>
       <c r="AJ17" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,55 +2827,55 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G18" t="n">
         <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="I18" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
         <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P18" t="n">
         <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R18" t="n">
         <v>1.42</v>
       </c>
       <c r="S18" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
         <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V18" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W18" t="n">
         <v>1.48</v>
@@ -2884,7 +2884,7 @@
         <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,13 +2893,13 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
@@ -2908,10 +2908,10 @@
         <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2923,16 +2923,16 @@
         <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -2965,16 +2965,16 @@
         <v>1.71</v>
       </c>
       <c r="G19" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
         <v>4.8</v>
       </c>
       <c r="J19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K19" t="n">
         <v>5.7</v>
@@ -2989,28 +2989,28 @@
         <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R19" t="n">
         <v>1.71</v>
       </c>
       <c r="S19" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U19" t="n">
         <v>2.52</v>
       </c>
       <c r="V19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W19" t="n">
         <v>2.16</v>
@@ -3019,7 +3019,7 @@
         <v>980</v>
       </c>
       <c r="Y19" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3031,10 +3031,10 @@
         <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
@@ -3052,10 +3052,10 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
         <v>980</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="H20" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J20" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="K20" t="n">
         <v>5.4</v>
@@ -3139,43 +3139,43 @@
         <v>2.34</v>
       </c>
       <c r="T20" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U20" t="n">
         <v>2.18</v>
       </c>
       <c r="V20" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W20" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="X20" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="Z20" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="n">
-        <v>95</v>
+        <v>510</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG20" t="n">
         <v>11</v>
@@ -3184,22 +3184,22 @@
         <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G21" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="H21" t="n">
         <v>4.4</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K21" t="n">
         <v>4.1</v>
@@ -3256,13 +3256,13 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O21" t="n">
         <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q21" t="n">
         <v>1.76</v>
@@ -3271,40 +3271,40 @@
         <v>1.44</v>
       </c>
       <c r="S21" t="n">
-        <v>2.6</v>
+        <v>2.86</v>
       </c>
       <c r="T21" t="n">
         <v>1.71</v>
       </c>
       <c r="U21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W21" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="X21" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="Y21" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
@@ -3316,10 +3316,10 @@
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AI21" t="n">
-        <v>330</v>
+        <v>170</v>
       </c>
       <c r="AJ21" t="n">
         <v>900</v>
@@ -3328,16 +3328,16 @@
         <v>38</v>
       </c>
       <c r="AL21" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>12.5</v>
+        <v>55</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="G22" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="H22" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="J22" t="n">
         <v>4.1</v>
@@ -3385,70 +3385,70 @@
         <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="R22" t="n">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="U22" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="W22" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="X22" t="n">
         <v>36</v>
       </c>
       <c r="Y22" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z22" t="n">
         <v>24</v>
       </c>
-      <c r="Z22" t="n">
-        <v>26</v>
-      </c>
       <c r="AA22" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG22" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13</v>
       </c>
       <c r="AH22" t="n">
         <v>12.5</v>
@@ -3457,19 +3457,19 @@
         <v>25</v>
       </c>
       <c r="AJ22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM22" t="n">
         <v>40</v>
       </c>
-      <c r="AK22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>38</v>
-      </c>
       <c r="AN22" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AO22" t="n">
         <v>11</v>
@@ -3502,58 +3502,58 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="G23" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K23" t="n">
         <v>5.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.27</v>
       </c>
       <c r="P23" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q23" t="n">
         <v>1.8</v>
       </c>
       <c r="R23" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T23" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V23" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="X23" t="n">
         <v>18</v>
@@ -3562,31 +3562,31 @@
         <v>26</v>
       </c>
       <c r="Z23" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA23" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="AB23" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC23" t="n">
         <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE23" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>120</v>
@@ -3598,16 +3598,16 @@
         <v>15.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
         <v>150</v>
       </c>
       <c r="AN23" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO23" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24">
@@ -3661,25 +3661,25 @@
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O24" t="n">
         <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q24" t="n">
         <v>1.51</v>
       </c>
       <c r="R24" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S24" t="n">
         <v>2.3</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U24" t="n">
         <v>1.91</v>
@@ -3694,13 +3694,13 @@
         <v>34</v>
       </c>
       <c r="Y24" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z24" t="n">
         <v>140</v>
       </c>
       <c r="AA24" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="AB24" t="n">
         <v>11</v>
@@ -3712,10 +3712,10 @@
         <v>46</v>
       </c>
       <c r="AE24" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG24" t="n">
         <v>11</v>
@@ -3733,13 +3733,13 @@
         <v>13</v>
       </c>
       <c r="AL24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM24" t="n">
         <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO24" t="n">
         <v>200</v>
@@ -3778,16 +3778,16 @@
         <v>2.04</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.36</v>
@@ -3805,22 +3805,22 @@
         <v>2.12</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S25" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T25" t="n">
         <v>1.77</v>
       </c>
       <c r="U25" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V25" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W25" t="n">
         <v>1.97</v>
@@ -3847,7 +3847,7 @@
         <v>16.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF25" t="n">
         <v>12.5</v>
@@ -3865,7 +3865,7 @@
         <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="n">
         <v>34</v>
@@ -3940,10 +3940,10 @@
         <v>2.34</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R26" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S26" t="n">
         <v>2.76</v>
@@ -3952,7 +3952,7 @@
         <v>1.6</v>
       </c>
       <c r="U26" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V26" t="n">
         <v>1.55</v>
@@ -3970,10 +3970,10 @@
         <v>20</v>
       </c>
       <c r="AA26" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC26" t="n">
         <v>8.6</v>
@@ -3991,10 +3991,10 @@
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
         <v>38</v>
@@ -4009,10 +4009,10 @@
         <v>65</v>
       </c>
       <c r="AN26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G27" t="n">
         <v>2.3</v>
       </c>
       <c r="H27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I27" t="n">
         <v>3.2</v>
       </c>
-      <c r="I27" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J27" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L27" t="n">
         <v>1.23</v>
@@ -4075,13 +4075,13 @@
         <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R27" t="n">
         <v>1.85</v>
       </c>
       <c r="S27" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T27" t="n">
         <v>1.45</v>
@@ -4090,13 +4090,13 @@
         <v>3.1</v>
       </c>
       <c r="V27" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W27" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="X27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y27" t="n">
         <v>23</v>
@@ -4147,7 +4147,7 @@
         <v>9</v>
       </c>
       <c r="AO27" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G28" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="H28" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="I28" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.2</v>
       </c>
       <c r="L28" t="n">
         <v>1.23</v>
@@ -4210,10 +4210,10 @@
         <v>3.15</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R28" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S28" t="n">
         <v>2.06</v>
@@ -4225,10 +4225,10 @@
         <v>3.2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W28" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="X28" t="n">
         <v>32</v>
@@ -4237,10 +4237,10 @@
         <v>23</v>
       </c>
       <c r="Z28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA28" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB28" t="n">
         <v>21</v>
@@ -4249,13 +4249,13 @@
         <v>10.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG28" t="n">
         <v>12.5</v>
@@ -4267,10 +4267,10 @@
         <v>26</v>
       </c>
       <c r="AJ28" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
         <v>24</v>
@@ -4279,10 +4279,10 @@
         <v>38</v>
       </c>
       <c r="AN28" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AO28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="G29" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H29" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K29" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4336,40 +4336,40 @@
         <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="P29" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="R29" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="S29" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="T29" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="U29" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="V29" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="W29" t="n">
-        <v>2.16</v>
+        <v>2.6</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
@@ -4381,10 +4381,10 @@
         <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AD29" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
@@ -4393,10 +4393,10 @@
         <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4447,64 +4447,64 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="H30" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="I30" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K30" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="M30" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N30" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="O30" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="P30" t="n">
         <v>1.43</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="R30" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S30" t="n">
         <v>1.05</v>
       </c>
       <c r="T30" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="U30" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="V30" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="W30" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y30" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4516,13 +4516,13 @@
         <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF30" t="n">
         <v>1000</v>
@@ -4531,7 +4531,7 @@
         <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -4582,55 +4582,55 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G31" t="n">
         <v>2.24</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J31" t="n">
         <v>3.3</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L31" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="O31" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P31" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="R31" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="S31" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="T31" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V31" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W31" t="n">
         <v>1.81</v>
@@ -4639,43 +4639,43 @@
         <v>17</v>
       </c>
       <c r="Y31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD31" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
@@ -4684,7 +4684,7 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G32" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="H32" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I32" t="n">
         <v>8</v>
       </c>
       <c r="J32" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K32" t="n">
         <v>4.8</v>
@@ -4741,82 +4741,82 @@
         <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O32" t="n">
         <v>1.34</v>
       </c>
       <c r="P32" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R32" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S32" t="n">
         <v>3.6</v>
       </c>
       <c r="T32" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U32" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V32" t="n">
         <v>1.14</v>
       </c>
       <c r="W32" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="X32" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y32" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Z32" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AA32" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC32" t="n">
         <v>10.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AE32" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF32" t="n">
         <v>8.6</v>
       </c>
       <c r="AG32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI32" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ32" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AK32" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
         <v>48</v>
       </c>
       <c r="AM32" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN32" t="n">
         <v>10</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:45:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Minnesota Utd</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.56</v>
+        <v>3.45</v>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>6.6</v>
+        <v>2.24</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>2.52</v>
       </c>
       <c r="J2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S2" t="n">
         <v>4.6</v>
       </c>
-      <c r="K2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.68</v>
-      </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
-        <v>2.24</v>
+        <v>1.84</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.65</v>
       </c>
       <c r="W2" t="n">
-        <v>2.74</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AA2" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>65</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.6</v>
+        <v>32</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Slovenian 2 SNL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Krsko</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.03</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Slovenian 2 SNL</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Krsko</t>
+          <t>AS Solimane</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Ben Guerdane</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>1.68</v>
+        <v>2.84</v>
       </c>
       <c r="I4" t="n">
-        <v>1.82</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>2.56</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>2.92</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.73</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>2.02</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.76</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="S4" t="n">
-        <v>2.38</v>
+        <v>8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.03</v>
+        <v>1.55</v>
       </c>
       <c r="V4" t="n">
-        <v>2.22</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="X4" t="n">
-        <v>38</v>
+        <v>6.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>27</v>
+        <v>7.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>7.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="AK4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1063,109 +1063,109 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AS Solimane</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ben Guerdane</t>
+          <t>AS Gabes</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.9</v>
+        <v>2.26</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>2.48</v>
       </c>
       <c r="H5" t="n">
-        <v>2.84</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.56</v>
+        <v>2.86</v>
       </c>
       <c r="K5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2.96</v>
       </c>
-      <c r="L5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.05</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>3.85</v>
+        <v>6.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="U5" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="V5" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="W5" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="X5" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AA5" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AC5" t="n">
         <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,93 +1193,93 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>11:35:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kairouan</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AS Gabes</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V6" t="n">
         <v>2.24</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.33</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1312,13 +1312,13 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:35:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.1</v>
+        <v>1.72</v>
       </c>
       <c r="G7" t="n">
-        <v>6.4</v>
+        <v>1.77</v>
       </c>
       <c r="H7" t="n">
-        <v>1.65</v>
+        <v>6.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1.81</v>
+        <v>6.8</v>
       </c>
       <c r="J7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.75</v>
       </c>
-      <c r="K7" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>1.54</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.87</v>
+        <v>2.72</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="S7" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>2.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.61</v>
       </c>
       <c r="V7" t="n">
-        <v>2.22</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.18</v>
+        <v>2.3</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="Z7" t="n">
-        <v>40</v>
+        <v>490</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>290</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,118 +1468,118 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>FC Voluntari</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>ACS Sepsi OSK</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.72</v>
+        <v>2.28</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>2.58</v>
       </c>
       <c r="H8" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>2.82</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
         <v>1.56</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="O8" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S8" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="T8" t="n">
-        <v>2.4</v>
+        <v>1.94</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="V8" t="n">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="W8" t="n">
-        <v>2.24</v>
+        <v>1.64</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.199999999999999</v>
+        <v>60</v>
       </c>
       <c r="AC8" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,78 +1598,78 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FC Voluntari</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ACS Sepsi OSK</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.81</v>
+        <v>2.22</v>
       </c>
       <c r="G9" t="n">
-        <v>44</v>
+        <v>2.32</v>
       </c>
       <c r="H9" t="n">
-        <v>2.02</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>44</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.62</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
         <v>3.5</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.1</v>
-      </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.26</v>
+        <v>1.82</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.5</v>
+        <v>2.12</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>3.85</v>
       </c>
       <c r="T9" t="n">
-        <v>1.03</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.28</v>
+        <v>1.75</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,43 +1678,43 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.22</v>
+        <v>15.5</v>
       </c>
       <c r="G10" t="n">
-        <v>2.34</v>
+        <v>16</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>1.28</v>
       </c>
       <c r="I10" t="n">
-        <v>3.95</v>
+        <v>1.29</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.35</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.05</v>
+        <v>2.46</v>
       </c>
       <c r="U10" t="n">
-        <v>1.03</v>
+        <v>1.64</v>
       </c>
       <c r="V10" t="n">
-        <v>1.33</v>
+        <v>4.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.74</v>
+        <v>1.06</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="n">
-        <v>42</v>
+        <v>14.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>810</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="X11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK11" t="n">
         <v>15</v>
       </c>
-      <c r="G11" t="n">
-        <v>16</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X11" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>160</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>800</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>320</v>
-      </c>
       <c r="AL11" t="n">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>520</v>
+        <v>7.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.2</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>ZED FC</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.68</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="V12" t="n">
         <v>1.63</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.21</v>
-      </c>
       <c r="W12" t="n">
-        <v>2.44</v>
+        <v>1.33</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="Y12" t="n">
-        <v>25</v>
+        <v>7.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE12" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>11.5</v>
+        <v>110</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.800000000000001</v>
+        <v>32</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>340</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,103 +2143,103 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G13" t="n">
         <v>3.55</v>
       </c>
-      <c r="G13" t="n">
-        <v>3.95</v>
-      </c>
       <c r="H13" t="n">
-        <v>2.4</v>
+        <v>2.74</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2.98</v>
       </c>
       <c r="J13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.92</v>
       </c>
-      <c r="K13" t="n">
-        <v>3</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="N13" t="n">
-        <v>2.54</v>
+        <v>2.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="P13" t="n">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.66</v>
+        <v>3.35</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="S13" t="n">
-        <v>5.5</v>
+        <v>7.6</v>
       </c>
       <c r="T13" t="n">
-        <v>2.08</v>
+        <v>2.42</v>
       </c>
       <c r="U13" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="W13" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>19.5</v>
+        <v>8</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
@@ -2248,10 +2248,10 @@
         <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AM13" t="n">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,118 +2278,118 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.15</v>
+        <v>1.96</v>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>2.02</v>
       </c>
       <c r="H14" t="n">
-        <v>2.78</v>
+        <v>4.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>2.94</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="M14" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.14</v>
+        <v>2.96</v>
       </c>
       <c r="O14" t="n">
-        <v>1.76</v>
+        <v>1.47</v>
       </c>
       <c r="P14" t="n">
-        <v>1.37</v>
+        <v>1.64</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.35</v>
+        <v>2.42</v>
       </c>
       <c r="R14" t="n">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="S14" t="n">
-        <v>7.6</v>
+        <v>4.7</v>
       </c>
       <c r="T14" t="n">
-        <v>2.44</v>
+        <v>2.06</v>
       </c>
       <c r="U14" t="n">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="W14" t="n">
-        <v>1.4</v>
+        <v>1.98</v>
       </c>
       <c r="X14" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
         <v>7.2</v>
       </c>
-      <c r="Z14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>420</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>8</v>
-      </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>14</v>
       </c>
       <c r="AD14" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="AG14" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="AM14" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.96</v>
+        <v>3.15</v>
       </c>
       <c r="G15" t="n">
-        <v>2.02</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>4.6</v>
+        <v>2.26</v>
       </c>
       <c r="I15" t="n">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>2.8</v>
+        <v>5.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>1.61</v>
+        <v>2.52</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S15" t="n">
         <v>2.4</v>
       </c>
-      <c r="R15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4.7</v>
-      </c>
       <c r="T15" t="n">
-        <v>2.06</v>
+        <v>1.51</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>2.62</v>
       </c>
       <c r="V15" t="n">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="W15" t="n">
-        <v>1.98</v>
+        <v>1.41</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Y15" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB15" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="AG15" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>70</v>
+        <v>14.5</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.98</v>
+        <v>1.6</v>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>1.69</v>
       </c>
       <c r="H16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P16" t="n">
         <v>2.32</v>
       </c>
-      <c r="I16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.4</v>
-      </c>
       <c r="Q16" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="T16" t="n">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="U16" t="n">
-        <v>2.54</v>
+        <v>2.16</v>
       </c>
       <c r="V16" t="n">
-        <v>1.68</v>
+        <v>1.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.45</v>
+        <v>2.44</v>
       </c>
       <c r="X16" t="n">
         <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.5</v>
+        <v>240</v>
       </c>
       <c r="AA16" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>12.5</v>
+        <v>55</v>
       </c>
       <c r="AE16" t="n">
-        <v>25</v>
+        <v>420</v>
       </c>
       <c r="AF16" t="n">
-        <v>44</v>
+        <v>11.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="AI16" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AJ16" t="n">
-        <v>220</v>
+        <v>16.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>90</v>
+        <v>16.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AM16" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>7.6</v>
       </c>
       <c r="AO16" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.61</v>
+        <v>2.82</v>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>5.5</v>
+        <v>2.38</v>
       </c>
       <c r="I17" t="n">
-        <v>6.2</v>
+        <v>2.66</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="R17" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="S17" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="T17" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="U17" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="V17" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="W17" t="n">
-        <v>2.42</v>
+        <v>1.45</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="Z17" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AD17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>270</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO17" t="n">
         <v>55</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>420</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>330</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2818,73 +2818,73 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.72</v>
+        <v>1.74</v>
       </c>
       <c r="G18" t="n">
-        <v>3.05</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
-        <v>2.52</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P18" t="n">
         <v>2.8</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.27</v>
       </c>
-      <c r="P18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.55</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.48</v>
+        <v>2.24</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,46 +2893,46 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>270</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -2953,73 +2953,73 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="G19" t="n">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="I19" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="J19" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K19" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="O19" t="n">
         <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="R19" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="T19" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="U19" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="V19" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="W19" t="n">
-        <v>2.16</v>
+        <v>2.6</v>
       </c>
       <c r="X19" t="n">
         <v>980</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3028,34 +3028,34 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AC19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH19" t="n">
         <v>42</v>
       </c>
-      <c r="AD19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>980</v>
-      </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AL19" t="n">
         <v>980</v>
@@ -3064,10 +3064,10 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>29</v>
+        <v>5.8</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -3088,73 +3088,73 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="G20" t="n">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="I20" t="n">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="J20" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.23</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.18</v>
-      </c>
       <c r="P20" t="n">
-        <v>2.52</v>
+        <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="R20" t="n">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="S20" t="n">
-        <v>2.34</v>
+        <v>2.78</v>
       </c>
       <c r="T20" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="U20" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="V20" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>2.72</v>
+        <v>2.06</v>
       </c>
       <c r="X20" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y20" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -3163,43 +3163,43 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>510</v>
+        <v>170</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="AK20" t="n">
-        <v>15.5</v>
+        <v>70</v>
       </c>
       <c r="AL20" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.83</v>
+        <v>2.72</v>
       </c>
       <c r="G21" t="n">
-        <v>1.97</v>
+        <v>2.74</v>
       </c>
       <c r="H21" t="n">
-        <v>4.4</v>
+        <v>2.58</v>
       </c>
       <c r="I21" t="n">
-        <v>5.2</v>
+        <v>2.62</v>
       </c>
       <c r="J21" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S21" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.86</v>
-      </c>
       <c r="T21" t="n">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="V21" t="n">
-        <v>1.24</v>
+        <v>1.61</v>
       </c>
       <c r="W21" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="X21" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB21" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AC21" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>60</v>
+        <v>12.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="AJ21" t="n">
-        <v>900</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>40</v>
       </c>
       <c r="AN21" t="n">
-        <v>55</v>
+        <v>11.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>290</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.66</v>
+        <v>1.48</v>
       </c>
       <c r="G22" t="n">
-        <v>2.68</v>
+        <v>1.49</v>
       </c>
       <c r="H22" t="n">
-        <v>2.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>2.62</v>
+        <v>8.6</v>
       </c>
       <c r="J22" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="P22" t="n">
-        <v>3.15</v>
+        <v>2.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.45</v>
+        <v>1.79</v>
       </c>
       <c r="R22" t="n">
-        <v>1.88</v>
+        <v>1.48</v>
       </c>
       <c r="S22" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.42</v>
+        <v>1.98</v>
       </c>
       <c r="U22" t="n">
-        <v>3.2</v>
+        <v>1.98</v>
       </c>
       <c r="V22" t="n">
-        <v>1.61</v>
+        <v>1.13</v>
       </c>
       <c r="W22" t="n">
-        <v>1.59</v>
+        <v>3</v>
       </c>
       <c r="X22" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Z22" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AA22" t="n">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="AB22" t="n">
-        <v>22</v>
+        <v>8.6</v>
       </c>
       <c r="AC22" t="n">
         <v>10.5</v>
       </c>
       <c r="AD22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>13</v>
       </c>
-      <c r="AE22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>42</v>
-      </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AL22" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>11.5</v>
+        <v>6.8</v>
       </c>
       <c r="AO22" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="G23" t="n">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="H23" t="n">
-        <v>8.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="I23" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="J23" t="n">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
       <c r="K23" t="n">
-        <v>5.1</v>
+        <v>7.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.2</v>
+        <v>2.78</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="R23" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="S23" t="n">
-        <v>3.05</v>
+        <v>2.36</v>
       </c>
       <c r="T23" t="n">
         <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V23" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="W23" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="X23" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Y23" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AA23" t="n">
-        <v>290</v>
+        <v>510</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AE23" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AJ23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK23" t="n">
         <v>13</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>15.5</v>
       </c>
       <c r="AL23" t="n">
         <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN23" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="AO23" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.27</v>
+        <v>1.98</v>
       </c>
       <c r="G24" t="n">
-        <v>1.28</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>13</v>
+        <v>4.3</v>
       </c>
       <c r="I24" t="n">
-        <v>13.5</v>
+        <v>4.4</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>7.2</v>
+        <v>3.75</v>
       </c>
       <c r="L24" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>2.86</v>
+        <v>2.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.51</v>
+        <v>1.87</v>
       </c>
       <c r="R24" t="n">
-        <v>1.74</v>
+        <v>1.43</v>
       </c>
       <c r="S24" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="T24" t="n">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>2.24</v>
       </c>
       <c r="V24" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="Y24" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE24" t="n">
         <v>48</v>
       </c>
-      <c r="Z24" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>550</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>190</v>
-      </c>
       <c r="AF24" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
         <v>32</v>
       </c>
       <c r="AM24" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.9</v>
+        <v>12.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
@@ -3763,25 +3763,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.02</v>
+        <v>2.66</v>
       </c>
       <c r="G25" t="n">
-        <v>2.04</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>2.76</v>
       </c>
       <c r="I25" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="J25" t="n">
         <v>3.7</v>
@@ -3790,94 +3790,94 @@
         <v>3.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="R25" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="S25" t="n">
-        <v>3.15</v>
+        <v>2.78</v>
       </c>
       <c r="T25" t="n">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="U25" t="n">
-        <v>2.26</v>
+        <v>2.54</v>
       </c>
       <c r="V25" t="n">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="W25" t="n">
-        <v>1.97</v>
+        <v>1.58</v>
       </c>
       <c r="X25" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AC25" t="n">
         <v>8.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN25" t="n">
         <v>17</v>
       </c>
-      <c r="AI25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AO25" t="n">
-        <v>44</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.66</v>
+        <v>2.28</v>
       </c>
       <c r="G26" t="n">
-        <v>2.68</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
-        <v>2.76</v>
+        <v>3.15</v>
       </c>
       <c r="I26" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="P26" t="n">
-        <v>2.34</v>
+        <v>3.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="R26" t="n">
-        <v>1.55</v>
+        <v>1.97</v>
       </c>
       <c r="S26" t="n">
-        <v>2.76</v>
+        <v>2.02</v>
       </c>
       <c r="T26" t="n">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="U26" t="n">
-        <v>2.56</v>
+        <v>3.3</v>
       </c>
       <c r="V26" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="W26" t="n">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="X26" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="Z26" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AA26" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AB26" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AJ26" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AK26" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AM26" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AN26" t="n">
-        <v>17</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO26" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="27">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="G27" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="H27" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="I27" t="n">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="R27" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S27" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T27" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="U27" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="V27" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="W27" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="X27" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA27" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB27" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
         <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AO27" t="n">
         <v>12</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>44</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Blooming Santa Cruz</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.5</v>
+        <v>1.56</v>
       </c>
       <c r="G28" t="n">
-        <v>2.52</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="I28" t="n">
-        <v>2.82</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K28" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>3.15</v>
+        <v>2.62</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="R28" t="n">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="S28" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="T28" t="n">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="U28" t="n">
-        <v>3.2</v>
+        <v>2.28</v>
       </c>
       <c r="V28" t="n">
-        <v>1.54</v>
+        <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>1.65</v>
+        <v>2.66</v>
       </c>
       <c r="X28" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Y28" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AE28" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AO28" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,81 +4298,81 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Nacional Potosi</t>
+          <t>Zamora FC</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Blooming Santa Cruz</t>
+          <t>Deportivo La Guaira</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="G29" t="n">
-        <v>1.62</v>
+        <v>6.2</v>
       </c>
       <c r="H29" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S29" t="n">
         <v>5.1</v>
       </c>
-      <c r="I29" t="n">
-        <v>7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N29" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.34</v>
-      </c>
       <c r="T29" t="n">
-        <v>1.59</v>
+        <v>2.26</v>
       </c>
       <c r="U29" t="n">
-        <v>2.36</v>
+        <v>1.6</v>
       </c>
       <c r="V29" t="n">
-        <v>1.16</v>
+        <v>1.93</v>
       </c>
       <c r="W29" t="n">
-        <v>2.6</v>
+        <v>1.21</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
@@ -4381,19 +4381,19 @@
         <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
         <v>1000</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Zamora FC</t>
+          <t>Puerto Cabello</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Deportivo La Guaira</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.1</v>
+        <v>1.94</v>
       </c>
       <c r="G30" t="n">
-        <v>6.4</v>
+        <v>2.12</v>
       </c>
       <c r="H30" t="n">
-        <v>1.87</v>
+        <v>3.75</v>
       </c>
       <c r="I30" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="J30" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K30" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
       <c r="M30" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>2.36</v>
+        <v>3.9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.64</v>
+        <v>1.28</v>
       </c>
       <c r="P30" t="n">
-        <v>1.43</v>
+        <v>1.94</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.56</v>
+        <v>1.84</v>
       </c>
       <c r="R30" t="n">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="S30" t="n">
-        <v>1.05</v>
+        <v>3.15</v>
       </c>
       <c r="T30" t="n">
-        <v>2.26</v>
+        <v>1.72</v>
       </c>
       <c r="U30" t="n">
-        <v>1.58</v>
+        <v>2.1</v>
       </c>
       <c r="V30" t="n">
-        <v>1.83</v>
+        <v>1.27</v>
       </c>
       <c r="W30" t="n">
-        <v>1.2</v>
+        <v>1.89</v>
       </c>
       <c r="X30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK30" t="n">
         <v>22</v>
       </c>
-      <c r="Y30" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>120</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,260 +4568,125 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Puerto Cabello</t>
+          <t>LDU</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Orense Sporting Club</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="G31" t="n">
-        <v>2.24</v>
+        <v>1.55</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>7.2</v>
       </c>
       <c r="I31" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="K31" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="O31" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="R31" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S31" t="n">
-        <v>2.82</v>
+        <v>3.45</v>
       </c>
       <c r="T31" t="n">
-        <v>1.71</v>
+        <v>2.06</v>
       </c>
       <c r="U31" t="n">
-        <v>2.08</v>
+        <v>1.77</v>
       </c>
       <c r="V31" t="n">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="W31" t="n">
-        <v>1.81</v>
+        <v>2.76</v>
       </c>
       <c r="X31" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="Y31" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="Z31" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AB31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC31" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC31" t="n">
-        <v>9</v>
-      </c>
       <c r="AD31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK31" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE31" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>22</v>
-      </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN31" t="n">
-        <v>14.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>LDU</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Orense Sporting Club</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="H32" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I32" t="n">
-        <v>8</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W32" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="X32" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>380</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO32" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
@@ -667,100 +667,100 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G2" t="n">
         <v>3.45</v>
       </c>
-      <c r="G2" t="n">
-        <v>4.1</v>
-      </c>
       <c r="H2" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="I2" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L2" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="O2" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="P2" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S2" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="U2" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="X2" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>22</v>
-      </c>
       <c r="AE2" t="n">
-        <v>250</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="I3" t="n">
         <v>1.84</v>
@@ -820,46 +820,46 @@
         <v>4.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.800000000000001</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="n">
         <v>12</v>
@@ -874,40 +874,40 @@
         <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AL3" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN3" t="n">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="AO3" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -937,52 +937,52 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J4" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="K4" t="n">
         <v>2.92</v>
       </c>
       <c r="L4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="M4" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="N4" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="O4" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="P4" t="n">
         <v>1.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="S4" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U4" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="V4" t="n">
         <v>1.44</v>
@@ -991,13 +991,13 @@
         <v>1.41</v>
       </c>
       <c r="X4" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1015,13 +1015,13 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="G5" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L5" t="n">
         <v>1.64</v>
@@ -1096,79 +1096,79 @@
         <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="R5" t="n">
         <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U5" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="W5" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="X5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC5" t="n">
         <v>7</v>
       </c>
-      <c r="AC5" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK5" t="n">
         <v>260</v>
       </c>
-      <c r="AK5" t="n">
-        <v>110</v>
-      </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="I6" t="n">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.41</v>
@@ -1231,34 +1231,34 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>2.24</v>
+        <v>2.52</v>
       </c>
       <c r="W6" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1267,7 +1267,7 @@
         <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>15.5</v>
       </c>
       <c r="AA6" t="n">
         <v>120</v>
@@ -1276,19 +1276,19 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="G7" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="H7" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="I7" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.59</v>
@@ -1366,61 +1366,61 @@
         <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O7" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P7" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="R7" t="n">
         <v>1.19</v>
       </c>
       <c r="S7" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="U7" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W7" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="Z7" t="n">
-        <v>490</v>
+        <v>220</v>
       </c>
       <c r="AA7" t="n">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
@@ -1429,22 +1429,22 @@
         <v>120</v>
       </c>
       <c r="AI7" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="AJ7" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="n">
-        <v>480</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>600</v>
+        <v>19.5</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.28</v>
+        <v>2.74</v>
       </c>
       <c r="G8" t="n">
-        <v>2.58</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>2.96</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
         <v>1.56</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="O8" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P8" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="R8" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S8" t="n">
         <v>4.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="V8" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="W8" t="n">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="X8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>20</v>
       </c>
-      <c r="Y8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC8" t="n">
+      <c r="AI8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO8" t="n">
         <v>42</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,37 +1612,37 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="G9" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N9" t="n">
         <v>3.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q9" t="n">
         <v>2.12</v>
@@ -1651,73 +1651,73 @@
         <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="W9" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="X9" t="n">
         <v>12.5</v>
       </c>
       <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
         <v>24</v>
       </c>
-      <c r="Z9" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
         <v>9.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="AF9" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI9" t="n">
         <v>60</v>
       </c>
-      <c r="AI9" t="n">
-        <v>350</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="AK9" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AL9" t="n">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="H10" t="n">
         <v>1.28</v>
@@ -1759,13 +1759,13 @@
         <v>1.29</v>
       </c>
       <c r="J10" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K10" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1774,46 +1774,46 @@
         <v>4.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
         <v>1.64</v>
       </c>
       <c r="V10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AA10" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AB10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="n">
         <v>14.5</v>
@@ -1828,25 +1828,25 @@
         <v>150</v>
       </c>
       <c r="AG10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI10" t="n">
         <v>55</v>
       </c>
-      <c r="AH10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>50</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="AK10" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AL10" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AM10" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="AN10" t="n">
         <v>520</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.69</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.7</v>
       </c>
       <c r="H11" t="n">
         <v>5.5</v>
@@ -1894,10 +1894,10 @@
         <v>5.6</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.31</v>
@@ -1906,40 +1906,40 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="R11" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="S11" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="T11" t="n">
         <v>1.68</v>
       </c>
       <c r="U11" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V11" t="n">
         <v>1.21</v>
       </c>
       <c r="W11" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="X11" t="n">
         <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z11" t="n">
         <v>46</v>
@@ -1966,7 +1966,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
         <v>55</v>
@@ -1987,7 +1987,7 @@
         <v>7.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>340</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G12" t="n">
         <v>4</v>
@@ -2026,73 +2026,73 @@
         <v>2.42</v>
       </c>
       <c r="I12" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="J12" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="K12" t="n">
         <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="M12" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N12" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="O12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P12" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="R12" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S12" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="T12" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="U12" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="V12" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="W12" t="n">
         <v>1.33</v>
       </c>
       <c r="X12" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>75</v>
+        <v>14.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AB12" t="n">
-        <v>19.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
         <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AF12" t="n">
         <v>110</v>
@@ -2110,13 +2110,13 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AL12" t="n">
         <v>340</v>
       </c>
       <c r="AM12" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AN12" t="n">
         <v>1000</v>
@@ -2158,7 +2158,7 @@
         <v>3.55</v>
       </c>
       <c r="H13" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="I13" t="n">
         <v>2.98</v>
@@ -2167,10 +2167,10 @@
         <v>2.7</v>
       </c>
       <c r="K13" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="M13" t="n">
         <v>1.19</v>
@@ -2179,19 +2179,19 @@
         <v>2.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="P13" t="n">
         <v>1.37</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="R13" t="n">
         <v>1.12</v>
       </c>
       <c r="S13" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="T13" t="n">
         <v>2.42</v>
@@ -2200,7 +2200,7 @@
         <v>1.61</v>
       </c>
       <c r="V13" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
         <v>1.4</v>
@@ -2230,13 +2230,13 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG13" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="AH13" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="n">
         <v>270</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G14" t="n">
         <v>2.02</v>
       </c>
       <c r="H14" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.3</v>
@@ -2305,43 +2305,43 @@
         <v>3.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="O14" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="P14" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S14" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U14" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W14" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="X14" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2353,10 +2353,10 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2368,7 +2368,7 @@
         <v>27</v>
       </c>
       <c r="AG14" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2422,73 +2422,73 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="H15" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="I15" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
         <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R15" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T15" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U15" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="V15" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="W15" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="X15" t="n">
         <v>25</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC15" t="n">
         <v>10</v>
@@ -2497,13 +2497,13 @@
         <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
         <v>14.5</v>
@@ -2512,22 +2512,22 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="16">
@@ -2560,16 +2560,16 @@
         <v>1.6</v>
       </c>
       <c r="G16" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I16" t="n">
         <v>6.4</v>
       </c>
       <c r="J16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
         <v>4.9</v>
@@ -2581,40 +2581,40 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q16" t="n">
         <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T16" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U16" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V16" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W16" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="X16" t="n">
         <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="Z16" t="n">
         <v>240</v>
@@ -2656,13 +2656,13 @@
         <v>95</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
         <v>2.38</v>
       </c>
       <c r="I17" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="J17" t="n">
         <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
@@ -2719,19 +2719,19 @@
         <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S17" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="T17" t="n">
         <v>1.64</v>
@@ -2740,34 +2740,34 @@
         <v>2.28</v>
       </c>
       <c r="V17" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="W17" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
         <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>14</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
         <v>65</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="n">
         <v>1000</v>
@@ -2782,7 +2782,7 @@
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="AK17" t="n">
         <v>1000</v>
@@ -2827,28 +2827,28 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
         <v>6</v>
@@ -2857,28 +2857,28 @@
         <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="S18" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="T18" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="U18" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="V18" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="W18" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="X18" t="n">
         <v>980</v>
@@ -2893,7 +2893,7 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AC18" t="n">
         <v>42</v>
@@ -2902,16 +2902,16 @@
         <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
         <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2926,13 +2926,13 @@
         <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
         <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="G19" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="I19" t="n">
         <v>6.8</v>
       </c>
       <c r="J19" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="K19" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.27</v>
@@ -2986,88 +2986,88 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="S19" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="T19" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U19" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V19" t="n">
         <v>1.17</v>
       </c>
       <c r="W19" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="X19" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="Y19" t="n">
         <v>75</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
@@ -3097,61 +3097,61 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="G20" t="n">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="H20" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="I20" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O20" t="n">
         <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="R20" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="S20" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="T20" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U20" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W20" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="X20" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
         <v>1000</v>
@@ -3163,25 +3163,25 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>40</v>
+        <v>12.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3190,7 +3190,7 @@
         <v>900</v>
       </c>
       <c r="AK20" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="n">
         <v>1000</v>
@@ -3199,7 +3199,7 @@
         <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="G21" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I21" t="n">
         <v>2.74</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.62</v>
-      </c>
       <c r="J21" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K21" t="n">
         <v>4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.1</v>
       </c>
       <c r="L21" t="n">
         <v>1.24</v>
@@ -3262,10 +3262,10 @@
         <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R21" t="n">
         <v>1.89</v>
@@ -3274,16 +3274,16 @@
         <v>2.1</v>
       </c>
       <c r="T21" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="U21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="V21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.61</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.57</v>
       </c>
       <c r="X21" t="n">
         <v>32</v>
@@ -3292,40 +3292,40 @@
         <v>21</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA21" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
         <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
         <v>25</v>
       </c>
       <c r="AJ21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
         <v>25</v>
@@ -3334,10 +3334,10 @@
         <v>40</v>
       </c>
       <c r="AN21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO21" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>10.5</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="G22" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="H22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I22" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K22" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
         <v>1.37</v>
@@ -3391,64 +3391,64 @@
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P22" t="n">
         <v>2.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R22" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T22" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U22" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V22" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="X22" t="n">
         <v>18</v>
       </c>
       <c r="Y22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z22" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE22" t="n">
         <v>120</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>24</v>
@@ -3457,7 +3457,7 @@
         <v>110</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK22" t="n">
         <v>15</v>
@@ -3469,10 +3469,10 @@
         <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I23" t="n">
         <v>13</v>
       </c>
-      <c r="I23" t="n">
-        <v>13.5</v>
-      </c>
       <c r="J23" t="n">
+        <v>7</v>
+      </c>
+      <c r="K23" t="n">
         <v>7.2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>7.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.28</v>
@@ -3526,34 +3526,34 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O23" t="n">
         <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R23" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S23" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T23" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U23" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V23" t="n">
         <v>1.08</v>
       </c>
       <c r="W23" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="X23" t="n">
         <v>32</v>
@@ -3562,16 +3562,16 @@
         <v>44</v>
       </c>
       <c r="Z23" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AA23" t="n">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="AB23" t="n">
         <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD23" t="n">
         <v>44</v>
@@ -3592,7 +3592,7 @@
         <v>150</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
@@ -3607,7 +3607,7 @@
         <v>4.2</v>
       </c>
       <c r="AO23" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="H24" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="I24" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="J24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.75</v>
       </c>
       <c r="L24" t="n">
         <v>1.39</v>
@@ -3661,88 +3661,88 @@
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R24" t="n">
         <v>1.43</v>
       </c>
       <c r="S24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T24" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U24" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V24" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="X24" t="n">
         <v>15.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM24" t="n">
         <v>85</v>
       </c>
-      <c r="AB24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>90</v>
-      </c>
       <c r="AN24" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AO24" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -3772,112 +3772,112 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G25" t="n">
         <v>2.66</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.7</v>
       </c>
       <c r="H25" t="n">
         <v>2.76</v>
       </c>
       <c r="I25" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L25" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>2.34</v>
+        <v>2.58</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="R25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T25" t="n">
         <v>1.54</v>
       </c>
-      <c r="S25" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.6</v>
       </c>
-      <c r="U25" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.58</v>
-      </c>
       <c r="X25" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>40</v>
       </c>
-      <c r="AB25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>38</v>
-      </c>
       <c r="AK25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM25" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AN25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G26" t="n">
         <v>2.3</v>
@@ -3925,31 +3925,31 @@
         <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="O26" t="n">
         <v>1.13</v>
       </c>
       <c r="P26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R26" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="S26" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="T26" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="U26" t="n">
         <v>3.3</v>
@@ -3958,46 +3958,46 @@
         <v>1.45</v>
       </c>
       <c r="W26" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="X26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA26" t="n">
         <v>55</v>
       </c>
       <c r="AB26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE26" t="n">
         <v>26</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>12.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ26" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK26" t="n">
         <v>18.5</v>
@@ -4006,13 +4006,13 @@
         <v>22</v>
       </c>
       <c r="AM26" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AN26" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AO26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -4048,10 +4048,10 @@
         <v>2.48</v>
       </c>
       <c r="H27" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I27" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J27" t="n">
         <v>4.1</v>
@@ -4060,34 +4060,34 @@
         <v>4.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P27" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="R27" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="S27" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="T27" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="U27" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="V27" t="n">
         <v>1.54</v>
@@ -4096,19 +4096,19 @@
         <v>1.67</v>
       </c>
       <c r="X27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA27" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AB27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC27" t="n">
         <v>10.5</v>
@@ -4120,19 +4120,19 @@
         <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ27" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK27" t="n">
         <v>21</v>
@@ -4141,13 +4141,13 @@
         <v>24</v>
       </c>
       <c r="AM27" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AN27" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -4177,88 +4177,88 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="H28" t="n">
-        <v>5.5</v>
+        <v>8.4</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="J28" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="K28" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P28" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="R28" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="S28" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="T28" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U28" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="W28" t="n">
-        <v>2.66</v>
+        <v>3.4</v>
       </c>
       <c r="X28" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD28" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
         <v>1000</v>
@@ -4267,22 +4267,22 @@
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN28" t="n">
-        <v>29</v>
+        <v>4.9</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -4312,79 +4312,79 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="G29" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="H29" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="I29" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J29" t="n">
         <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="L29" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="M29" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N29" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="P29" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="R29" t="n">
         <v>1.16</v>
       </c>
       <c r="S29" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="T29" t="n">
         <v>2.26</v>
       </c>
       <c r="U29" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="V29" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="W29" t="n">
         <v>1.21</v>
       </c>
       <c r="X29" t="n">
-        <v>22</v>
+        <v>8.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>29</v>
+        <v>6.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="n">
-        <v>21</v>
+        <v>8.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AE29" t="n">
         <v>140</v>
@@ -4396,7 +4396,7 @@
         <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
@@ -4447,112 +4447,112 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.94</v>
+        <v>1.7</v>
       </c>
       <c r="G30" t="n">
-        <v>2.12</v>
+        <v>1.73</v>
       </c>
       <c r="H30" t="n">
-        <v>3.75</v>
+        <v>5.6</v>
       </c>
       <c r="I30" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L30" t="n">
         <v>1.37</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O30" t="n">
         <v>1.28</v>
       </c>
       <c r="P30" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R30" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="S30" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="U30" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V30" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="W30" t="n">
-        <v>1.89</v>
+        <v>2.38</v>
       </c>
       <c r="X30" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y30" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB30" t="n">
         <v>17</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AC30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL30" t="n">
         <v>34</v>
       </c>
-      <c r="AA30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>100</v>
-      </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>270</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -4582,31 +4582,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G31" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H31" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="I31" t="n">
         <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O31" t="n">
         <v>1.32</v>
@@ -4615,37 +4615,37 @@
         <v>1.99</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R31" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S31" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="T31" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U31" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="V31" t="n">
         <v>1.14</v>
       </c>
       <c r="W31" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="X31" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="Y31" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Z31" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AA31" t="n">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="AB31" t="n">
         <v>7.8</v>
@@ -4654,7 +4654,7 @@
         <v>10.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="n">
         <v>160</v>
@@ -4672,19 +4672,19 @@
         <v>140</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK31" t="n">
         <v>17.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
         <v>200</v>
       </c>
       <c r="AN31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,114 +653,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>AS Solimane</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Ben Guerdane</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.1</v>
       </c>
-      <c r="G2" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.48</v>
-      </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>1.2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35</v>
+        <v>2.74</v>
       </c>
       <c r="L2" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.11</v>
       </c>
-      <c r="N2" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.2</v>
-      </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AF2" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Slovenian 2 SNL</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Krsko</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>AS Gabes</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="H3" t="n">
-        <v>1.76</v>
+        <v>240</v>
       </c>
       <c r="I3" t="n">
-        <v>1.84</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S3" t="n">
         <v>2.16</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.92</v>
-      </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>2.68</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>1.27</v>
       </c>
       <c r="V3" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.23</v>
+        <v>17.5</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>11:35:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AS Solimane</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ben Guerdane</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.98</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>2.94</v>
+        <v>1.05</v>
       </c>
       <c r="I4" t="n">
-        <v>3.35</v>
+        <v>1.07</v>
       </c>
       <c r="J4" t="n">
-        <v>2.62</v>
+        <v>19</v>
       </c>
       <c r="K4" t="n">
-        <v>2.92</v>
+        <v>23</v>
       </c>
       <c r="L4" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.83</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.42</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>16</v>
       </c>
       <c r="W4" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kairouan</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AS Gabes</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="G5" t="n">
-        <v>2.68</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="M5" t="n">
         <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="O5" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="P5" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
         <v>2.92</v>
       </c>
       <c r="R5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S5" t="n">
         <v>6.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.22</v>
+        <v>2.56</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="V5" t="n">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>1.6</v>
+        <v>2.34</v>
       </c>
       <c r="X5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>390</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF5" t="n">
         <v>7.8</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AG5" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ5" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,105 +1193,105 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:35:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>FC Voluntari</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>ACS Sepsi OSK</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="G6" t="n">
-        <v>7.4</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>2.04</v>
+        <v>1.69</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.27</v>
       </c>
       <c r="R6" t="n">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="S6" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.5</v>
+        <v>8.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>120</v>
+        <v>12.5</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>18.5</v>
+        <v>8.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>13.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>65</v>
+        <v>790</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1312,13 +1312,13 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,123 +1328,123 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.63</v>
+        <v>2.36</v>
       </c>
       <c r="G7" t="n">
-        <v>1.68</v>
+        <v>2.44</v>
       </c>
       <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC7" t="n">
         <v>7.4</v>
       </c>
-      <c r="I7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="X7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>220</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>370</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AD7" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.8</v>
+        <v>14.5</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="AN7" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC Voluntari</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ACS Sepsi OSK</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.74</v>
+        <v>16.5</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>17</v>
       </c>
       <c r="H8" t="n">
-        <v>2.96</v>
+        <v>1.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>1.26</v>
       </c>
       <c r="J8" t="n">
-        <v>2.92</v>
+        <v>6.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>2.84</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>1.64</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.44</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
-        <v>1.22</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>4.7</v>
+        <v>2.98</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>2.6</v>
       </c>
       <c r="U8" t="n">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="V8" t="n">
-        <v>1.47</v>
+        <v>4.8</v>
       </c>
       <c r="W8" t="n">
-        <v>1.48</v>
+        <v>1.06</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>170</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH8" t="n">
         <v>48</v>
       </c>
-      <c r="AB8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>20</v>
-      </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>950</v>
       </c>
       <c r="AK8" t="n">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="AM8" t="n">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="AN8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>42</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.4</v>
       </c>
-      <c r="G9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="W9" t="n">
-        <v>1.71</v>
+        <v>2.44</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Z9" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="AA9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AO9" t="n">
         <v>70</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>ZED FC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD10" t="n">
         <v>14</v>
       </c>
-      <c r="G10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="X10" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11</v>
-      </c>
       <c r="AE10" t="n">
-        <v>14.5</v>
+        <v>170</v>
       </c>
       <c r="AF10" t="n">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
         <v>46</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AL10" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="AM10" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="AN10" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.68</v>
+        <v>3.75</v>
       </c>
       <c r="G11" t="n">
-        <v>1.69</v>
+        <v>3.95</v>
       </c>
       <c r="H11" t="n">
-        <v>5.5</v>
+        <v>2.52</v>
       </c>
       <c r="I11" t="n">
-        <v>5.6</v>
+        <v>2.64</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>2.78</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>2.92</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.75</v>
       </c>
       <c r="M11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.04</v>
       </c>
-      <c r="N11" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.68</v>
-      </c>
       <c r="U11" t="n">
-        <v>2.4</v>
+        <v>1.56</v>
       </c>
       <c r="V11" t="n">
-        <v>1.21</v>
+        <v>1.6</v>
       </c>
       <c r="W11" t="n">
-        <v>2.44</v>
+        <v>1.34</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,118 +2008,118 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.7</v>
+        <v>1.83</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>1.88</v>
       </c>
       <c r="H12" t="n">
-        <v>2.42</v>
+        <v>5.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.52</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.94</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.54</v>
+        <v>2.92</v>
       </c>
       <c r="O12" t="n">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="P12" t="n">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.92</v>
+        <v>2.44</v>
       </c>
       <c r="R12" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="S12" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="T12" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="U12" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="W12" t="n">
-        <v>1.33</v>
+        <v>2.12</v>
       </c>
       <c r="X12" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.6</v>
+        <v>25</v>
       </c>
       <c r="Z12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK12" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="AM12" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="G13" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.84</v>
+        <v>2.34</v>
       </c>
       <c r="I13" t="n">
-        <v>2.98</v>
+        <v>2.42</v>
       </c>
       <c r="J13" t="n">
-        <v>2.7</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.77</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>1.37</v>
+        <v>2.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.45</v>
+        <v>1.56</v>
       </c>
       <c r="R13" t="n">
-        <v>1.12</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="n">
-        <v>8</v>
+        <v>2.46</v>
       </c>
       <c r="T13" t="n">
-        <v>2.42</v>
+        <v>1.51</v>
       </c>
       <c r="U13" t="n">
-        <v>1.61</v>
+        <v>2.64</v>
       </c>
       <c r="V13" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="X13" t="n">
-        <v>6.6</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.2</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB13" t="n">
-        <v>8</v>
+        <v>19.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL13" t="n">
         <v>32</v>
       </c>
-      <c r="AG13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>270</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>330</v>
-      </c>
       <c r="AM13" t="n">
-        <v>370</v>
+        <v>55</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,123 +2273,123 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="G14" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>2.88</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>1.61</v>
+        <v>2.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>1.66</v>
       </c>
       <c r="R14" t="n">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="T14" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="W14" t="n">
-        <v>1.99</v>
+        <v>2.32</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF14" t="n">
-        <v>27</v>
+        <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AJ14" t="n">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>55</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.45</v>
+        <v>2.86</v>
       </c>
       <c r="G15" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.22</v>
+        <v>2.62</v>
       </c>
       <c r="J15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
         <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.58</v>
+        <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.54</v>
+        <v>1.77</v>
       </c>
       <c r="R15" t="n">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="U15" t="n">
-        <v>2.58</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="W15" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="X15" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Z15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH15" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AM15" t="n">
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>600</v>
       </c>
       <c r="AO15" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="G16" t="n">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="H16" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="I16" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="K16" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.36</v>
+        <v>2.88</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="R16" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="S16" t="n">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="U16" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="V16" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W16" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Y16" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
-        <v>420</v>
+        <v>230</v>
       </c>
       <c r="AF16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>7.4</v>
+        <v>5.1</v>
       </c>
       <c r="AO16" t="n">
-        <v>600</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>1.78</v>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>1.81</v>
       </c>
       <c r="H17" t="n">
-        <v>2.38</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.56</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="P17" t="n">
-        <v>2.14</v>
+        <v>2.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="R17" t="n">
-        <v>1.46</v>
+        <v>1.79</v>
       </c>
       <c r="S17" t="n">
-        <v>2.8</v>
+        <v>2.16</v>
       </c>
       <c r="T17" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="U17" t="n">
-        <v>2.28</v>
+        <v>2.76</v>
       </c>
       <c r="V17" t="n">
-        <v>1.64</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>1.44</v>
+        <v>2.2</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>310</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>65</v>
+        <v>18.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>280</v>
+        <v>24</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>55</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18">
@@ -2818,73 +2818,73 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="G18" t="n">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="H18" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J18" t="n">
         <v>4</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.5</v>
-      </c>
       <c r="K18" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="P18" t="n">
-        <v>2.74</v>
+        <v>2.26</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.5</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.71</v>
-      </c>
       <c r="S18" t="n">
-        <v>2.24</v>
+        <v>2.72</v>
       </c>
       <c r="T18" t="n">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="U18" t="n">
-        <v>2.64</v>
+        <v>2.14</v>
       </c>
       <c r="V18" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="W18" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,43 +2893,43 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>42</v>
+        <v>9.4</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH18" t="n">
-        <v>60</v>
+        <v>18.5</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.49</v>
+        <v>2.64</v>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>2.66</v>
       </c>
       <c r="H19" t="n">
-        <v>6.2</v>
+        <v>2.72</v>
       </c>
       <c r="I19" t="n">
-        <v>6.8</v>
+        <v>2.74</v>
       </c>
       <c r="J19" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="K19" t="n">
-        <v>5.7</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R19" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="S19" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="T19" t="n">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="U19" t="n">
-        <v>2.28</v>
+        <v>3.15</v>
       </c>
       <c r="V19" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="W19" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="X19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG19" t="n">
         <v>13</v>
       </c>
-      <c r="AC19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD19" t="n">
+      <c r="AH19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI19" t="n">
         <v>26</v>
       </c>
-      <c r="AE19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>25</v>
       </c>
       <c r="AM19" t="n">
-        <v>580</v>
+        <v>38</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.4</v>
+        <v>12.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>600</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="G20" t="n">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="H20" t="n">
-        <v>5.6</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>6.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>3.95</v>
+        <v>4.9</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P20" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="R20" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="S20" t="n">
-        <v>2.68</v>
+        <v>2.98</v>
       </c>
       <c r="T20" t="n">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="V20" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="W20" t="n">
-        <v>2.38</v>
+        <v>3.15</v>
       </c>
       <c r="X20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC20" t="n">
         <v>11</v>
       </c>
-      <c r="AC20" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF20" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH20" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ20" t="n">
-        <v>900</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN20" t="n">
-        <v>85</v>
+        <v>6.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.62</v>
+        <v>1.27</v>
       </c>
       <c r="G21" t="n">
-        <v>2.64</v>
+        <v>1.28</v>
       </c>
       <c r="H21" t="n">
-        <v>2.7</v>
+        <v>13.5</v>
       </c>
       <c r="I21" t="n">
-        <v>2.74</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>3.95</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="R21" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.89</v>
       </c>
-      <c r="S21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U21" t="n">
-        <v>3.2</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.57</v>
+        <v>1.07</v>
       </c>
       <c r="W21" t="n">
-        <v>1.61</v>
+        <v>4.6</v>
       </c>
       <c r="X21" t="n">
         <v>32</v>
       </c>
       <c r="Y21" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="Z21" t="n">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="AA21" t="n">
-        <v>42</v>
+        <v>550</v>
       </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK21" t="n">
         <v>13</v>
       </c>
-      <c r="AE21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>22</v>
-      </c>
       <c r="AL21" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AM21" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="AO21" t="n">
-        <v>11.5</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.46</v>
+        <v>2.16</v>
       </c>
       <c r="G22" t="n">
-        <v>1.47</v>
+        <v>2.18</v>
       </c>
       <c r="H22" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>8.800000000000001</v>
+        <v>3.85</v>
       </c>
       <c r="J22" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>3.65</v>
       </c>
       <c r="L22" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="R22" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="S22" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="T22" t="n">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="U22" t="n">
-        <v>1.94</v>
+        <v>2.28</v>
       </c>
       <c r="V22" t="n">
-        <v>1.12</v>
+        <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>3.1</v>
+        <v>1.84</v>
       </c>
       <c r="X22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z22" t="n">
         <v>26</v>
       </c>
-      <c r="Z22" t="n">
-        <v>75</v>
-      </c>
       <c r="AA22" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>30</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
         <v>34</v>
       </c>
       <c r="AM22" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>6.6</v>
+        <v>14.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>150</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
@@ -3493,49 +3493,49 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.28</v>
+        <v>2.62</v>
       </c>
       <c r="G23" t="n">
-        <v>1.29</v>
+        <v>2.64</v>
       </c>
       <c r="H23" t="n">
-        <v>12.5</v>
+        <v>2.78</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>2.82</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>7.2</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
         <v>6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R23" t="n">
         <v>1.69</v>
@@ -3544,70 +3544,70 @@
         <v>2.4</v>
       </c>
       <c r="T23" t="n">
-        <v>2.06</v>
+        <v>1.52</v>
       </c>
       <c r="U23" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="V23" t="n">
-        <v>1.08</v>
+        <v>1.55</v>
       </c>
       <c r="W23" t="n">
-        <v>4.4</v>
+        <v>1.61</v>
       </c>
       <c r="X23" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>44</v>
+        <v>17.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="AA23" t="n">
-        <v>490</v>
+        <v>42</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
-        <v>15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.199999999999999</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.2</v>
+        <v>14</v>
       </c>
       <c r="AO23" t="n">
-        <v>220</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R24" t="n">
         <v>2.12</v>
       </c>
-      <c r="G24" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.43</v>
-      </c>
       <c r="S24" t="n">
-        <v>3.25</v>
+        <v>1.88</v>
       </c>
       <c r="T24" t="n">
-        <v>1.76</v>
+        <v>1.37</v>
       </c>
       <c r="U24" t="n">
-        <v>2.26</v>
+        <v>3.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="W24" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD24" t="n">
         <v>15</v>
       </c>
-      <c r="Z24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AE24" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AJ24" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AK24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL24" t="n">
         <v>21</v>
       </c>
-      <c r="AL24" t="n">
-        <v>34</v>
-      </c>
       <c r="AM24" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AN24" t="n">
-        <v>14</v>
+        <v>7.4</v>
       </c>
       <c r="AO24" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="G25" t="n">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="J25" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="P25" t="n">
-        <v>2.58</v>
+        <v>3.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.41</v>
       </c>
       <c r="R25" t="n">
-        <v>1.65</v>
+        <v>1.96</v>
       </c>
       <c r="S25" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="T25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U25" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.54</v>
       </c>
-      <c r="U25" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.56</v>
-      </c>
       <c r="W25" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="X25" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB25" t="n">
         <v>22</v>
       </c>
-      <c r="Y25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AC25" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE25" t="n">
         <v>24</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AJ25" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK25" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AM25" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>15</v>
+        <v>9.4</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Blooming Santa Cruz</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.26</v>
+        <v>1.38</v>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
-        <v>3.15</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>8.4</v>
+        <v>6.2</v>
       </c>
       <c r="O26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.13</v>
       </c>
-      <c r="P26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.45</v>
-      </c>
       <c r="W26" t="n">
-        <v>1.77</v>
+        <v>3.5</v>
       </c>
       <c r="X26" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD26" t="n">
         <v>36</v>
       </c>
-      <c r="Y26" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC26" t="n">
+      <c r="AE26" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF26" t="n">
         <v>11</v>
       </c>
-      <c r="AD26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>22</v>
-      </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="AJ26" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AM26" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="AO26" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Zamora FC</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Deportivo La Guaira</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.46</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>2.48</v>
+        <v>5.7</v>
       </c>
       <c r="H27" t="n">
-        <v>2.82</v>
+        <v>1.95</v>
       </c>
       <c r="I27" t="n">
-        <v>2.84</v>
+        <v>2.02</v>
       </c>
       <c r="J27" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="K27" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="L27" t="n">
-        <v>1.26</v>
+        <v>1.64</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.15</v>
+        <v>1.64</v>
       </c>
       <c r="P27" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q27" t="n">
         <v>3</v>
       </c>
-      <c r="Q27" t="n">
-        <v>1.47</v>
-      </c>
       <c r="R27" t="n">
-        <v>1.84</v>
+        <v>1.16</v>
       </c>
       <c r="S27" t="n">
-        <v>2.16</v>
+        <v>6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.47</v>
+        <v>2.3</v>
       </c>
       <c r="U27" t="n">
-        <v>3.05</v>
+        <v>1.58</v>
       </c>
       <c r="V27" t="n">
-        <v>1.54</v>
+        <v>1.98</v>
       </c>
       <c r="W27" t="n">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="X27" t="n">
-        <v>30</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y27" t="n">
-        <v>21</v>
+        <v>6.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AA27" t="n">
-        <v>42</v>
+        <v>900</v>
       </c>
       <c r="AB27" t="n">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="AC27" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AD27" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Nacional Potosi</t>
+          <t>Puerto Cabello</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Blooming Santa Cruz</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="G28" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R28" t="n">
         <v>1.41</v>
       </c>
-      <c r="H28" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N28" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.74</v>
-      </c>
       <c r="S28" t="n">
-        <v>2.18</v>
+        <v>3.05</v>
       </c>
       <c r="T28" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="U28" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="V28" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="W28" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="X28" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="Y28" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z28" t="n">
         <v>50</v>
       </c>
-      <c r="Z28" t="n">
-        <v>110</v>
-      </c>
       <c r="AA28" t="n">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="AB28" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AC28" t="n">
         <v>14</v>
       </c>
       <c r="AD28" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM28" t="n">
         <v>120</v>
       </c>
-      <c r="AF28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>110</v>
-      </c>
       <c r="AN28" t="n">
-        <v>4.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO28" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,395 +4298,125 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Zamora FC</t>
+          <t>LDU</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Deportivo La Guaira</t>
+          <t>Orense Sporting Club</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.9</v>
+        <v>1.47</v>
       </c>
       <c r="G29" t="n">
-        <v>5.7</v>
+        <v>1.53</v>
       </c>
       <c r="H29" t="n">
-        <v>1.97</v>
+        <v>8.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.06</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="K29" t="n">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="M29" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.63</v>
+        <v>1.39</v>
       </c>
       <c r="P29" t="n">
-        <v>1.46</v>
+        <v>1.79</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.05</v>
+        <v>2.14</v>
       </c>
       <c r="R29" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="S29" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
         <v>2.26</v>
       </c>
       <c r="U29" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="V29" t="n">
-        <v>1.94</v>
+        <v>1.11</v>
       </c>
       <c r="W29" t="n">
-        <v>1.21</v>
+        <v>2.84</v>
       </c>
       <c r="X29" t="n">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="Y29" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>430</v>
+      </c>
+      <c r="AB29" t="n">
         <v>6.6</v>
       </c>
-      <c r="Z29" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>38</v>
-      </c>
       <c r="AC29" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AE29" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="n">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK29" t="n">
         <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Venezuelan Primera Division</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Puerto Cabello</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H30" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W30" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X30" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>LDU</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Orense Sporting Club</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="H31" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I31" t="n">
-        <v>8</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W31" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="X31" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>370</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AO31" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,114 +653,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AS Solimane</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ben Guerdane</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>670</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>1.02</v>
       </c>
       <c r="J2" t="n">
-        <v>1.2</v>
+        <v>95</v>
       </c>
       <c r="K2" t="n">
-        <v>2.74</v>
+        <v>120</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>2.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="T2" t="n">
-        <v>1.03</v>
+        <v>4.7</v>
       </c>
       <c r="U2" t="n">
-        <v>1.03</v>
+        <v>1.21</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>75</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>100</v>
+        <v>3.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,102 +788,102 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kairouan</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AS Gabes</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
       <c r="G3" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="H3" t="n">
-        <v>240</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>1.81</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="P3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>34</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S3" t="n">
+        <v>170</v>
+      </c>
+      <c r="T3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.07</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.27</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>17.5</v>
+        <v>1.53</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -892,7 +892,7 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:35:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>ZED FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>3.85</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>3.95</v>
       </c>
       <c r="H4" t="n">
-        <v>1.05</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.07</v>
+        <v>3.15</v>
       </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>2.34</v>
       </c>
       <c r="K4" t="n">
-        <v>23</v>
+        <v>2.38</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,82 +967,82 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH4" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>16</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
         <v>32</v>
       </c>
-      <c r="AI4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL4" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN4" t="n">
-        <v>440</v>
+        <v>90</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.71</v>
+        <v>3.65</v>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>2.06</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>2.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.92</v>
+        <v>1.61</v>
       </c>
       <c r="R5" t="n">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="S5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6.4</v>
       </c>
-      <c r="T5" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="X5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>390</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>40</v>
-      </c>
       <c r="AE5" t="n">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>5.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,108 +1193,108 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Voluntari</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ACS Sepsi OSK</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.3</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>14.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>1.37</v>
       </c>
       <c r="I6" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="J6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>3.6</v>
       </c>
-      <c r="K6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.6</v>
+        <v>4.2</v>
       </c>
       <c r="AE6" t="n">
-        <v>13.5</v>
+        <v>5.5</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>6.4</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1303,22 +1303,22 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.36</v>
+        <v>3.9</v>
       </c>
       <c r="G7" t="n">
-        <v>2.44</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>1.98</v>
       </c>
       <c r="I7" t="n">
-        <v>3.65</v>
+        <v>2.02</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>5.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>1.84</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="S7" t="n">
-        <v>3.85</v>
+        <v>2.76</v>
       </c>
       <c r="T7" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AA7" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.800000000000001</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AH7" t="n">
         <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN7" t="n">
         <v>34</v>
       </c>
-      <c r="AK7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>470</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>23</v>
-      </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X8" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF8" t="n">
         <v>16.5</v>
       </c>
-      <c r="G8" t="n">
-        <v>17</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>170</v>
-      </c>
       <c r="AG8" t="n">
-        <v>60</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>48</v>
+        <v>15.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>950</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>400</v>
+        <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="AM8" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>4.9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.67</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.7</v>
-      </c>
       <c r="U9" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="V9" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.44</v>
+        <v>3.15</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>510</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL9" t="n">
         <v>25</v>
       </c>
-      <c r="Z9" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>26</v>
-      </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.6</v>
+        <v>4.7</v>
       </c>
       <c r="AO9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,123 +1733,123 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.3</v>
+        <v>1.68</v>
       </c>
       <c r="G10" t="n">
-        <v>3.45</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
-        <v>2.74</v>
+        <v>5.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.84</v>
+        <v>6.6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.96</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.63</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>2.62</v>
+        <v>4.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.88</v>
+        <v>1.24</v>
       </c>
       <c r="R10" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>6</v>
+        <v>2.72</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>1.72</v>
+        <v>1.03</v>
       </c>
       <c r="V10" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>1.4</v>
+        <v>2.34</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="AE10" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK10" t="n">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="AM10" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.75</v>
+        <v>2.94</v>
       </c>
       <c r="G11" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J11" t="n">
-        <v>2.78</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>2.92</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.75</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>2.22</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.77</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>1.37</v>
+        <v>2.12</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.45</v>
+        <v>1.81</v>
       </c>
       <c r="R11" t="n">
-        <v>1.12</v>
+        <v>1.45</v>
       </c>
       <c r="S11" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC11" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="T11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1000</v>
-      </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,123 +2003,123 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>1.66</v>
       </c>
       <c r="G12" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="H12" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>2.92</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>1.63</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.44</v>
+        <v>1.66</v>
       </c>
       <c r="R12" t="n">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="S12" t="n">
-        <v>4.9</v>
+        <v>2.66</v>
       </c>
       <c r="T12" t="n">
-        <v>2.16</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W12" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="Y12" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH12" t="n">
         <v>25</v>
       </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.05</v>
+        <v>2.42</v>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>2.44</v>
       </c>
       <c r="H13" t="n">
-        <v>2.34</v>
+        <v>2.86</v>
       </c>
       <c r="I13" t="n">
-        <v>2.42</v>
+        <v>2.88</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>2.6</v>
+        <v>3.15</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="S13" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="T13" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="U13" t="n">
-        <v>2.64</v>
+        <v>3.25</v>
       </c>
       <c r="V13" t="n">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="W13" t="n">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="X13" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE13" t="n">
         <v>24</v>
       </c>
-      <c r="Y13" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA13" t="n">
+      <c r="AF13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>34</v>
       </c>
-      <c r="AB13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AK13" t="n">
         <v>21</v>
       </c>
-      <c r="AF13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>29</v>
-      </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AM13" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AN13" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.68</v>
+        <v>2.28</v>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.3</v>
       </c>
-      <c r="K14" t="n">
-        <v>4.7</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="P14" t="n">
-        <v>2.36</v>
+        <v>3.55</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.66</v>
+        <v>1.37</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>2.06</v>
       </c>
       <c r="S14" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.38</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>3.55</v>
       </c>
       <c r="V14" t="n">
-        <v>1.21</v>
+        <v>1.48</v>
       </c>
       <c r="W14" t="n">
-        <v>2.32</v>
+        <v>1.76</v>
       </c>
       <c r="X14" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Z14" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="AF14" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>330</v>
+        <v>25</v>
       </c>
       <c r="AJ14" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AK14" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="H15" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="I15" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="P15" t="n">
-        <v>2.12</v>
+        <v>2.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.77</v>
+        <v>1.58</v>
       </c>
       <c r="R15" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="U15" t="n">
-        <v>2.28</v>
+        <v>2.84</v>
       </c>
       <c r="V15" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="W15" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="X15" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE15" t="n">
         <v>24</v>
       </c>
-      <c r="Z15" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>180</v>
-      </c>
       <c r="AF15" t="n">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AJ15" t="n">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="AK15" t="n">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>270</v>
+        <v>28</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>46</v>
       </c>
       <c r="AN15" t="n">
-        <v>600</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>55</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.48</v>
+        <v>2.46</v>
       </c>
       <c r="G16" t="n">
-        <v>1.52</v>
+        <v>2.48</v>
       </c>
       <c r="H16" t="n">
-        <v>6.2</v>
+        <v>2.98</v>
       </c>
       <c r="I16" t="n">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>5.2</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="S16" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="T16" t="n">
-        <v>1.69</v>
+        <v>1.41</v>
       </c>
       <c r="U16" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="V16" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>2.92</v>
+        <v>1.68</v>
       </c>
       <c r="X16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="Z16" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AA16" t="n">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="AB16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD16" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>27</v>
-      </c>
       <c r="AE16" t="n">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="AF16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG16" t="n">
         <v>12</v>
       </c>
-      <c r="AG16" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="AK16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO16" t="n">
         <v>14</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.78</v>
+        <v>1.26</v>
       </c>
       <c r="G17" t="n">
-        <v>1.81</v>
+        <v>1.27</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>13.5</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>14</v>
       </c>
       <c r="J17" t="n">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.9</v>
+        <v>7.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>2.96</v>
+        <v>2.72</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="R17" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="S17" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.52</v>
+        <v>2.04</v>
       </c>
       <c r="U17" t="n">
-        <v>2.76</v>
+        <v>1.92</v>
       </c>
       <c r="V17" t="n">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="W17" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="X17" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>590</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL17" t="n">
         <v>34</v>
       </c>
-      <c r="Y17" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>310</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>22</v>
-      </c>
       <c r="AM17" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="AO17" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,39 +2813,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.69</v>
+        <v>1.48</v>
       </c>
       <c r="G18" t="n">
-        <v>1.71</v>
+        <v>1.49</v>
       </c>
       <c r="H18" t="n">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="I18" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -2854,85 +2854,85 @@
         <v>4.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P18" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="R18" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S18" t="n">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="T18" t="n">
-        <v>1.74</v>
+        <v>1.97</v>
       </c>
       <c r="U18" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="W18" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>90</v>
+        <v>19.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC18" t="n">
         <v>11</v>
       </c>
-      <c r="AC18" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF18" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG18" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH18" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="n">
-        <v>75</v>
+        <v>13.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>6.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.64</v>
+        <v>2.12</v>
       </c>
       <c r="G19" t="n">
-        <v>2.66</v>
+        <v>2.14</v>
       </c>
       <c r="H19" t="n">
-        <v>2.72</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>2.74</v>
+        <v>3.95</v>
       </c>
       <c r="J19" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>2.08</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.49</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
-        <v>1.82</v>
+        <v>1.45</v>
       </c>
       <c r="S19" t="n">
-        <v>2.18</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="U19" t="n">
-        <v>3.15</v>
+        <v>2.26</v>
       </c>
       <c r="V19" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="X19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL19" t="n">
         <v>32</v>
       </c>
-      <c r="Y19" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA19" t="n">
+      <c r="AM19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO19" t="n">
         <v>42</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Blooming Santa Cruz</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="G20" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="I20" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="K20" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>260</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN20" t="n">
         <v>5</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="X20" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AO20" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Puerto Cabello</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.27</v>
       </c>
-      <c r="G21" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>7</v>
-      </c>
-      <c r="K21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
-        <v>6</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.18</v>
       </c>
-      <c r="P21" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.07</v>
-      </c>
       <c r="W21" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="X21" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="Z21" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AA21" t="n">
-        <v>550</v>
+        <v>170</v>
       </c>
       <c r="AB21" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="AF21" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH21" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.2</v>
+        <v>9.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>260</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Zamora FC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Deportivo La Guaira</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.16</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>2.18</v>
+        <v>5.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>1.94</v>
       </c>
       <c r="I22" t="n">
-        <v>3.85</v>
+        <v>2.02</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="L22" t="n">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N22" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.64</v>
       </c>
       <c r="P22" t="n">
-        <v>2.08</v>
+        <v>1.46</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.43</v>
+        <v>1.16</v>
       </c>
       <c r="S22" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.76</v>
+        <v>2.28</v>
       </c>
       <c r="U22" t="n">
-        <v>2.28</v>
+        <v>1.59</v>
       </c>
       <c r="V22" t="n">
-        <v>1.35</v>
+        <v>1.98</v>
       </c>
       <c r="W22" t="n">
-        <v>1.84</v>
+        <v>1.21</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AA22" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AD22" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AE22" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AF22" t="n">
-        <v>13.5</v>
+        <v>180</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="AI22" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>LDU</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Orense Sporting Club</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.62</v>
+        <v>1.41</v>
       </c>
       <c r="G23" t="n">
-        <v>2.64</v>
+        <v>1.44</v>
       </c>
       <c r="H23" t="n">
-        <v>2.78</v>
+        <v>9.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.82</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>3.95</v>
       </c>
       <c r="O23" t="n">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="P23" t="n">
-        <v>2.68</v>
+        <v>2.04</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.58</v>
+        <v>1.93</v>
       </c>
       <c r="R23" t="n">
-        <v>1.69</v>
+        <v>1.38</v>
       </c>
       <c r="S23" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.52</v>
+        <v>2.18</v>
       </c>
       <c r="U23" t="n">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="V23" t="n">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="W23" t="n">
-        <v>1.61</v>
+        <v>3.3</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="AA23" t="n">
-        <v>42</v>
+        <v>480</v>
       </c>
       <c r="AB23" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="AE23" t="n">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="AI23" t="n">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="AJ23" t="n">
-        <v>38</v>
+        <v>11.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AM23" t="n">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AO23" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,801 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Lobos UPNFM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G24" t="n">
-        <v>2.28</v>
+        <v>2.62</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="I24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
         <v>3.15</v>
       </c>
-      <c r="J24" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N24" t="n">
-        <v>9</v>
-      </c>
       <c r="O24" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>3.6</v>
+        <v>1.86</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="R24" t="n">
-        <v>2.12</v>
+        <v>1.33</v>
       </c>
       <c r="S24" t="n">
-        <v>1.88</v>
+        <v>3.25</v>
       </c>
       <c r="T24" t="n">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="U24" t="n">
-        <v>3.5</v>
+        <v>2.08</v>
       </c>
       <c r="V24" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="W24" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="X24" t="n">
-        <v>40</v>
+        <v>17.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AA24" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD24" t="n">
         <v>15</v>
       </c>
       <c r="AE24" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AF24" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AJ24" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>7.4</v>
+        <v>25</v>
       </c>
       <c r="AO24" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Liverpool</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Real Madrid</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="U25" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="X25" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Nacional Potosi</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Blooming Santa Cruz</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="I26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K26" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N26" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X26" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>340</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>290</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Venezuelan Primera Division</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Zamora FC</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Deportivo La Guaira</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S27" t="n">
-        <v>6</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="X27" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>120</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>180</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Venezuelan Primera Division</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Puerto Cabello</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H28" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="X28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>LDU</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Orense Sporting Club</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H29" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W29" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="X29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>430</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>290</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
